--- a/results/RL_OPHS_Summary FINAL.xlsx
+++ b/results/RL_OPHS_Summary FINAL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Engineering - Master\Thesis\Paper\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Engineering - Master\Thesis\Code\OPHS_RL\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A250BA0-B89D-41BE-AF60-FB09E3D4B351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE61C06-0757-44AE-990C-481B44EBDAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="419">
   <si>
     <t>Instance</t>
   </si>
@@ -1279,6 +1279,9 @@
   </si>
   <si>
     <t>Min</t>
+  </si>
+  <si>
+    <t>Best value</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1744,6 +1747,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1754,12 +1775,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1795,22 +1810,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2115,13 +2133,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A79885-BAAA-46D9-B8A5-A863CBDF109B}">
-  <dimension ref="A1:P422"/>
+  <dimension ref="A1:Q422"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E381" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="O396" sqref="O396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2145,69 +2163,73 @@
     <col min="17" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="72.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:17" ht="72.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
       <c r="J1" s="31"/>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="64" t="s">
         <v>404</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>411</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="51" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>405</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="31"/>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="59" t="s">
         <v>402</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="L2" s="60"/>
+      <c r="M2" s="60" t="s">
         <v>403</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="55" t="s">
+      <c r="N2" s="60"/>
+      <c r="O2" s="59" t="s">
         <v>406</v>
       </c>
-      <c r="P2" s="57"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48"/>
-      <c r="B3" s="50"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="66" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="52"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="4" t="s">
         <v>410</v>
       </c>
@@ -2226,7 +2248,7 @@
       <c r="H3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="54"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="31"/>
       <c r="K3" s="4" t="s">
         <v>410</v>
@@ -2246,8 +2268,9 @@
       <c r="P3" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="66"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
@@ -2295,8 +2318,12 @@
       <c r="P4" s="26">
         <v>0.30317521095275879</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="67">
+        <f t="shared" ref="Q4:Q30" si="1">MAX(K4,M4,O4)</f>
+        <v>178.33396080409619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
@@ -2344,8 +2371,12 @@
       <c r="P5" s="26">
         <v>0.17553019523620611</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="68">
+        <f t="shared" si="1"/>
+        <v>176.41580361334351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
@@ -2393,8 +2424,12 @@
       <c r="P6" s="26">
         <v>0.18051648139953611</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="68">
+        <f t="shared" si="1"/>
+        <v>178.42507454126721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>8</v>
       </c>
@@ -2442,8 +2477,12 @@
       <c r="P7" s="26">
         <v>0.18151354789733889</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="68">
+        <f t="shared" si="1"/>
+        <v>177.11130744110909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>9</v>
       </c>
@@ -2491,8 +2530,12 @@
       <c r="P8" s="26">
         <v>0.1914870738983154</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="68">
+        <f t="shared" si="1"/>
+        <v>175.75647923661609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>10</v>
       </c>
@@ -2540,8 +2583,12 @@
       <c r="P9" s="26">
         <v>0.23836302757263181</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" s="68">
+        <f t="shared" si="1"/>
+        <v>188.82601438141461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>11</v>
       </c>
@@ -2589,8 +2636,12 @@
       <c r="P10" s="26">
         <v>0.18350887298583979</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" s="68">
+        <f t="shared" si="1"/>
+        <v>183.42551174868339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>12</v>
       </c>
@@ -2638,8 +2689,12 @@
       <c r="P11" s="26">
         <v>0.19048953056335449</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" s="68">
+        <f t="shared" si="1"/>
+        <v>190.1481769213037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>13</v>
       </c>
@@ -2687,8 +2742,12 @@
       <c r="P12" s="26">
         <v>0.18550348281860349</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" s="68">
+        <f t="shared" si="1"/>
+        <v>185.7394499216459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>14</v>
       </c>
@@ -2736,8 +2795,12 @@
       <c r="P13" s="26">
         <v>0.195476770401001</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" s="68">
+        <f t="shared" si="1"/>
+        <v>188.18789194104849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>15</v>
       </c>
@@ -2785,8 +2848,12 @@
       <c r="P14" s="26">
         <v>0.17453289031982419</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" s="68">
+        <f t="shared" si="1"/>
+        <v>186.0571056272552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>16</v>
       </c>
@@ -2834,8 +2901,12 @@
       <c r="P15" s="26">
         <v>0.23536968231201169</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" s="68">
+        <f t="shared" si="1"/>
+        <v>185.96377067508811</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>17</v>
       </c>
@@ -2883,8 +2954,12 @@
       <c r="P16" s="26">
         <v>0.18949246406555181</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="68">
+        <f t="shared" si="1"/>
+        <v>189.29766805213561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>18</v>
       </c>
@@ -2932,8 +3007,12 @@
       <c r="P17" s="26">
         <v>0.19547724723815921</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="68">
+        <f t="shared" si="1"/>
+        <v>184.80419919052869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>19</v>
       </c>
@@ -2981,8 +3060,12 @@
       <c r="P18" s="26">
         <v>0.1934819221496582</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="68">
+        <f t="shared" si="1"/>
+        <v>191.90863098464189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>20</v>
       </c>
@@ -3030,8 +3113,12 @@
       <c r="P19" s="26">
         <v>0.17852234840393069</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19" s="68">
+        <f t="shared" si="1"/>
+        <v>185.29982817904681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>21</v>
       </c>
@@ -3079,8 +3166,12 @@
       <c r="P20" s="26">
         <v>0.18450641632080081</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="68">
+        <f t="shared" si="1"/>
+        <v>199.5895978213492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>22</v>
       </c>
@@ -3128,8 +3219,12 @@
       <c r="P21" s="26">
         <v>0.18949294090270999</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21" s="68">
+        <f t="shared" si="1"/>
+        <v>199.1631119928584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>23</v>
       </c>
@@ -3177,8 +3272,12 @@
       <c r="P22" s="26">
         <v>0.19447946548461911</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22" s="68">
+        <f t="shared" si="1"/>
+        <v>193.76155522419691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>24</v>
       </c>
@@ -3226,8 +3325,12 @@
       <c r="P23" s="26">
         <v>0.19747138023376459</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23" s="68">
+        <f t="shared" si="1"/>
+        <v>193.77687156828031</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>25</v>
       </c>
@@ -3275,8 +3378,12 @@
       <c r="P24" s="26">
         <v>0.18051671981811521</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q24" s="68">
+        <f t="shared" si="1"/>
+        <v>201.78345346433301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>26</v>
       </c>
@@ -3324,8 +3431,12 @@
       <c r="P25" s="26">
         <v>0.18749809265136719</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q25" s="68">
+        <f t="shared" si="1"/>
+        <v>199.9275111332154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>27</v>
       </c>
@@ -3373,8 +3484,12 @@
       <c r="P26" s="26">
         <v>0.19647455215454099</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q26" s="68">
+        <f t="shared" si="1"/>
+        <v>199.90590448395241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>28</v>
       </c>
@@ -3422,8 +3537,12 @@
       <c r="P27" s="26">
         <v>0.1934821605682373</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q27" s="68">
+        <f t="shared" si="1"/>
+        <v>197.17099900958681</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>29</v>
       </c>
@@ -3471,8 +3590,12 @@
       <c r="P28" s="26">
         <v>0.20545053482055661</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q28" s="68">
+        <f t="shared" si="1"/>
+        <v>194.06289064674149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>30</v>
       </c>
@@ -3520,8 +3643,12 @@
       <c r="P29" s="26">
         <v>0.1795191764831543</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q29" s="68">
+        <f t="shared" si="1"/>
+        <v>203.55182923369529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>31</v>
       </c>
@@ -3569,8 +3696,12 @@
       <c r="P30" s="26">
         <v>0.18749880790710449</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q30" s="68">
+        <f t="shared" si="1"/>
+        <v>198.68082911817291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>32</v>
       </c>
@@ -3618,8 +3749,12 @@
       <c r="P31" s="26">
         <v>0.1954765319824219</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q31" s="68">
+        <f>MAX(K31,M31,O31)</f>
+        <v>197.91031222464869</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>33</v>
       </c>
@@ -3667,8 +3802,12 @@
       <c r="P32" s="26">
         <v>0.20345568656921389</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q32" s="68">
+        <f t="shared" ref="Q32:Q95" si="2">MAX(K32,M32,O32)</f>
+        <v>196.39291492599111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
         <v>34</v>
       </c>
@@ -3716,8 +3855,12 @@
       <c r="P33" s="26">
         <v>0.19946599006652829</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q33" s="68">
+        <f t="shared" si="2"/>
+        <v>203.61812999148179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
         <v>35</v>
       </c>
@@ -3765,8 +3908,12 @@
       <c r="P34" s="26">
         <v>0.16056990623474121</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q34" s="68">
+        <f t="shared" si="2"/>
+        <v>397.02493710201998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
         <v>36</v>
       </c>
@@ -3814,8 +3961,12 @@
       <c r="P35" s="26">
         <v>0.15059661865234381</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q35" s="68">
+        <f t="shared" si="2"/>
+        <v>316.8046038687192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
         <v>37</v>
       </c>
@@ -3863,8 +4014,12 @@
       <c r="P36" s="26">
         <v>0.16256451606750491</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q36" s="68">
+        <f t="shared" si="2"/>
+        <v>404.40219671033952</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
         <v>38</v>
       </c>
@@ -3912,8 +4067,12 @@
       <c r="P37" s="26">
         <v>0.1595726013183594</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q37" s="68">
+        <f t="shared" si="2"/>
+        <v>343.54732160106983</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
         <v>39</v>
       </c>
@@ -3961,8 +4120,12 @@
       <c r="P38" s="26">
         <v>0.16555690765380859</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q38" s="68">
+        <f t="shared" si="2"/>
+        <v>368.49762550007461</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
         <v>40</v>
       </c>
@@ -4010,8 +4173,12 @@
       <c r="P39" s="26">
         <v>0.1665542125701904</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q39" s="68">
+        <f t="shared" si="2"/>
+        <v>429.76401519777647</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="30" t="s">
         <v>41</v>
       </c>
@@ -4059,8 +4226,12 @@
       <c r="P40" s="26">
         <v>0.2263939380645752</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q40" s="68">
+        <f t="shared" si="2"/>
+        <v>425.15505279525382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
         <v>42</v>
       </c>
@@ -4108,8 +4279,12 @@
       <c r="P41" s="26">
         <v>0.18251204490661621</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q41" s="68">
+        <f t="shared" si="2"/>
+        <v>414.07026938464918</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
         <v>43</v>
       </c>
@@ -4157,8 +4332,12 @@
       <c r="P42" s="26">
         <v>0.16555666923522949</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q42" s="68">
+        <f t="shared" si="2"/>
+        <v>425.9952910081866</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
         <v>44</v>
       </c>
@@ -4206,8 +4385,12 @@
       <c r="P43" s="26">
         <v>0.17652750015258789</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q43" s="68">
+        <f t="shared" si="2"/>
+        <v>411.97518677229942</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="30" t="s">
         <v>45</v>
       </c>
@@ -4255,8 +4438,12 @@
       <c r="P44" s="26">
         <v>0.17054414749145511</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q44" s="68">
+        <f t="shared" si="2"/>
+        <v>469.09654457712941</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
         <v>46</v>
       </c>
@@ -4304,8 +4491,12 @@
       <c r="P45" s="26">
         <v>0.18051671981811521</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q45" s="68">
+        <f t="shared" si="2"/>
+        <v>427.20141926853643</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="30" t="s">
         <v>47</v>
       </c>
@@ -4353,8 +4544,12 @@
       <c r="P46" s="26">
         <v>0.17154121398925781</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q46" s="68">
+        <f t="shared" si="2"/>
+        <v>427.65901465620999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="30" t="s">
         <v>48</v>
       </c>
@@ -4402,8 +4597,12 @@
       <c r="P47" s="26">
         <v>0.17852187156677249</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q47" s="68">
+        <f t="shared" si="2"/>
+        <v>438.53861579467048</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
         <v>49</v>
       </c>
@@ -4451,8 +4650,12 @@
       <c r="P48" s="26">
         <v>0.18051767349243161</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q48" s="68">
+        <f t="shared" si="2"/>
+        <v>437.48119196414842</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="30" t="s">
         <v>50</v>
       </c>
@@ -4500,8 +4703,12 @@
       <c r="P49" s="26">
         <v>0.17652750015258789</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q49" s="68">
+        <f t="shared" si="2"/>
+        <v>513.46643997795525</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
         <v>51</v>
       </c>
@@ -4549,8 +4756,12 @@
       <c r="P50" s="26">
         <v>0.166553258895874</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q50" s="68">
+        <f t="shared" si="2"/>
+        <v>427.58127213134611</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
         <v>52</v>
       </c>
@@ -4598,8 +4809,12 @@
       <c r="P51" s="26">
         <v>0.17553043365478521</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q51" s="68">
+        <f t="shared" si="2"/>
+        <v>469.01369226985588</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="30" t="s">
         <v>53</v>
       </c>
@@ -4647,8 +4862,12 @@
       <c r="P52" s="26">
         <v>0.168548583984375</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q52" s="68">
+        <f t="shared" si="2"/>
+        <v>458.31638135192378</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="30" t="s">
         <v>54</v>
       </c>
@@ -4696,8 +4915,12 @@
       <c r="P53" s="26">
         <v>0.18450617790222171</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q53" s="68">
+        <f t="shared" si="2"/>
+        <v>473.83212250904921</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="30" t="s">
         <v>55</v>
       </c>
@@ -4745,8 +4968,12 @@
       <c r="P54" s="26">
         <v>0.1795196533203125</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q54" s="68">
+        <f t="shared" si="2"/>
+        <v>518.10303401200395</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="30" t="s">
         <v>56</v>
       </c>
@@ -4794,8 +5021,12 @@
       <c r="P55" s="26">
         <v>0.1795196533203125</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q55" s="68">
+        <f t="shared" si="2"/>
+        <v>483.01000942650512</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="30" t="s">
         <v>57</v>
       </c>
@@ -4843,8 +5074,12 @@
       <c r="P56" s="26">
         <v>0.1795189380645752</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q56" s="68">
+        <f t="shared" si="2"/>
+        <v>487.10730223188239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
         <v>58</v>
       </c>
@@ -4892,8 +5127,12 @@
       <c r="P57" s="26">
         <v>0.1795196533203125</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q57" s="68">
+        <f t="shared" si="2"/>
+        <v>511.05128458344711</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="30" t="s">
         <v>59</v>
       </c>
@@ -4941,8 +5180,12 @@
       <c r="P58" s="26">
         <v>0.18749761581420901</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q58" s="68">
+        <f t="shared" si="2"/>
+        <v>479.44468551736747</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="s">
         <v>60</v>
       </c>
@@ -4990,8 +5233,12 @@
       <c r="P59" s="26">
         <v>0.17752623558044431</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q59" s="68">
+        <f t="shared" si="2"/>
+        <v>521.21788019384007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="30" t="s">
         <v>61</v>
       </c>
@@ -5039,8 +5286,12 @@
       <c r="P60" s="26">
         <v>0.18251132965087891</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q60" s="68">
+        <f t="shared" si="2"/>
+        <v>503.43815623999961</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="30" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5339,12 @@
       <c r="P61" s="26">
         <v>0.19148755073547361</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q61" s="68">
+        <f t="shared" si="2"/>
+        <v>531.89469820731642</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="30" t="s">
         <v>63</v>
       </c>
@@ -5137,8 +5392,12 @@
       <c r="P62" s="26">
         <v>0.1825108528137207</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q62" s="68">
+        <f t="shared" si="2"/>
+        <v>503.62698237030128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="30" t="s">
         <v>64</v>
       </c>
@@ -5186,8 +5445,12 @@
       <c r="P63" s="26">
         <v>0.1954758167266846</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q63" s="68">
+        <f t="shared" si="2"/>
+        <v>513.48803721529032</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="30" t="s">
         <v>65</v>
       </c>
@@ -5235,8 +5498,12 @@
       <c r="P64" s="26">
         <v>0.18051648139953611</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q64" s="68">
+        <f t="shared" si="2"/>
+        <v>551.55432524494609</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="30" t="s">
         <v>66</v>
       </c>
@@ -5284,8 +5551,12 @@
       <c r="P65" s="26">
         <v>0.180516242980957</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q65" s="68">
+        <f t="shared" si="2"/>
+        <v>555.30261927626668</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="30" t="s">
         <v>67</v>
       </c>
@@ -5333,8 +5604,12 @@
       <c r="P66" s="26">
         <v>0.18849492073059079</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q66" s="68">
+        <f t="shared" si="2"/>
+        <v>530.15074101083178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="30" t="s">
         <v>68</v>
       </c>
@@ -5382,8 +5657,12 @@
       <c r="P67" s="26">
         <v>0.1884958744049072</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q67" s="68">
+        <f t="shared" si="2"/>
+        <v>537.35137234747219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="30" t="s">
         <v>69</v>
       </c>
@@ -5409,7 +5688,7 @@
         <v>0.2243995666503906</v>
       </c>
       <c r="I68" s="14">
-        <f t="shared" ref="I68:I131" si="1">((B68-MAX(C68,E68,G68))/B68)*100</f>
+        <f t="shared" ref="I68:I131" si="3">((B68-MAX(C68,E68,G68))/B68)*100</f>
         <v>2.5</v>
       </c>
       <c r="J68" s="31"/>
@@ -5431,8 +5710,12 @@
       <c r="P68" s="26">
         <v>0.20046401023864749</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q68" s="68">
+        <f t="shared" si="2"/>
+        <v>511.06752778215412</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="30" t="s">
         <v>70</v>
       </c>
@@ -5458,7 +5741,7 @@
         <v>0.20885634422302249</v>
       </c>
       <c r="I69" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
       <c r="J69" s="31"/>
@@ -5480,8 +5763,12 @@
       <c r="P69" s="26">
         <v>0.19048953056335449</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q69" s="68">
+        <f t="shared" si="2"/>
+        <v>569.42583656299371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="30" t="s">
         <v>71</v>
       </c>
@@ -5507,7 +5794,7 @@
         <v>0.20545005798339841</v>
       </c>
       <c r="I70" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J70" s="31"/>
@@ -5529,8 +5816,12 @@
       <c r="P70" s="26">
         <v>0.18749833106994629</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q70" s="68">
+        <f t="shared" si="2"/>
+        <v>523.02279934212152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="30" t="s">
         <v>72</v>
       </c>
@@ -5556,7 +5847,7 @@
         <v>0.2134289741516113</v>
       </c>
       <c r="I71" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J71" s="31"/>
@@ -5578,8 +5869,12 @@
       <c r="P71" s="26">
         <v>0.1934819221496582</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q71" s="68">
+        <f t="shared" si="2"/>
+        <v>535.31749236526935</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="30" t="s">
         <v>73</v>
       </c>
@@ -5605,7 +5900,7 @@
         <v>0.2134287357330322</v>
       </c>
       <c r="I72" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J72" s="31"/>
@@ -5627,8 +5922,12 @@
       <c r="P72" s="26">
         <v>0.1914870738983154</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q72" s="68">
+        <f t="shared" si="2"/>
+        <v>569.15798564278452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="30" t="s">
         <v>74</v>
       </c>
@@ -5654,7 +5953,7 @@
         <v>0.21732854843139651</v>
       </c>
       <c r="I73" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="J73" s="31"/>
@@ -5676,8 +5975,12 @@
       <c r="P73" s="26">
         <v>0.20844197273254389</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q73" s="68">
+        <f t="shared" si="2"/>
+        <v>507.54067759163229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="30" t="s">
         <v>75</v>
       </c>
@@ -5703,7 +6006,7 @@
         <v>0.29022359848022461</v>
       </c>
       <c r="I74" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.9411764705882351</v>
       </c>
       <c r="J74" s="31"/>
@@ -5725,8 +6028,12 @@
       <c r="P74" s="26">
         <v>0.28025031089782709</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q74" s="68">
+        <f t="shared" si="2"/>
+        <v>679.03822745985849</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="30" t="s">
         <v>76</v>
       </c>
@@ -5752,7 +6059,7 @@
         <v>0.27725863456726069</v>
       </c>
       <c r="I75" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.0882352941176467</v>
       </c>
       <c r="J75" s="31"/>
@@ -5774,8 +6081,12 @@
       <c r="P75" s="26">
         <v>0.27725768089294428</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q75" s="68">
+        <f t="shared" si="2"/>
+        <v>650.25987320987474</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="30" t="s">
         <v>77</v>
       </c>
@@ -5801,7 +6112,7 @@
         <v>0.28480243682861328</v>
       </c>
       <c r="I76" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.3137254901960791</v>
       </c>
       <c r="J76" s="31"/>
@@ -5823,8 +6134,12 @@
       <c r="P76" s="26">
         <v>0.28025031089782709</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q76" s="68">
+        <f t="shared" si="2"/>
+        <v>557.7705197344568</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="30" t="s">
         <v>78</v>
       </c>
@@ -5850,7 +6165,7 @@
         <v>0.30630326271057129</v>
       </c>
       <c r="I77" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.5588235294117645</v>
       </c>
       <c r="J77" s="31"/>
@@ -5872,8 +6187,12 @@
       <c r="P77" s="26">
         <v>0.30817556381225591</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q77" s="68">
+        <f t="shared" si="2"/>
+        <v>655.0225597371317</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="30" t="s">
         <v>79</v>
       </c>
@@ -5899,7 +6218,7 @@
         <v>0.31715178489685059</v>
       </c>
       <c r="I78" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.3137254901960791</v>
       </c>
       <c r="J78" s="31"/>
@@ -5921,8 +6240,12 @@
       <c r="P78" s="26">
         <v>0.29919886589050287</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q78" s="68">
+        <f t="shared" si="2"/>
+        <v>577.15799370633727</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="30" t="s">
         <v>80</v>
       </c>
@@ -5948,7 +6271,7 @@
         <v>0.29022336006164551</v>
       </c>
       <c r="I79" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.666666666666667</v>
       </c>
       <c r="J79" s="31"/>
@@ -5970,8 +6293,12 @@
       <c r="P79" s="26">
         <v>0.29521083831787109</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q79" s="68">
+        <f t="shared" si="2"/>
+        <v>709.65733305841638</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="30" t="s">
         <v>81</v>
       </c>
@@ -5997,7 +6324,7 @@
         <v>0.29773998260498052</v>
       </c>
       <c r="I80" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="J80" s="31"/>
@@ -6019,8 +6346,12 @@
       <c r="P80" s="26">
         <v>0.28224468231201172</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q80" s="68">
+        <f t="shared" si="2"/>
+        <v>698.34365451849271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="30" t="s">
         <v>82</v>
       </c>
@@ -6046,7 +6377,7 @@
         <v>0.30219221115112299</v>
       </c>
       <c r="I81" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="J81" s="31"/>
@@ -6068,8 +6399,12 @@
       <c r="P81" s="26">
         <v>0.29919910430908198</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q81" s="68">
+        <f t="shared" si="2"/>
+        <v>671.95741445170142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="30" t="s">
         <v>83</v>
       </c>
@@ -6095,7 +6430,7 @@
         <v>0.31715154647827148</v>
       </c>
       <c r="I82" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="J82" s="31"/>
@@ -6117,8 +6452,12 @@
       <c r="P82" s="26">
         <v>0.31415915489196777</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q82" s="68">
+        <f t="shared" si="2"/>
+        <v>704.10002882746551</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="30" t="s">
         <v>84</v>
       </c>
@@ -6144,7 +6483,7 @@
         <v>0.33223152160644531</v>
       </c>
       <c r="I83" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.333333333333333</v>
       </c>
       <c r="J83" s="31"/>
@@ -6166,8 +6505,12 @@
       <c r="P83" s="26">
         <v>0.32612752914428711</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q83" s="68">
+        <f t="shared" si="2"/>
+        <v>691.83462975587327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="30" t="s">
         <v>85</v>
       </c>
@@ -6193,7 +6536,7 @@
         <v>0.31715178489685059</v>
       </c>
       <c r="I84" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.0487804878048781</v>
       </c>
       <c r="J84" s="31"/>
@@ -6215,8 +6558,12 @@
       <c r="P84" s="26">
         <v>0.32213807106018072</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q84" s="68">
+        <f t="shared" si="2"/>
+        <v>814.6923498680128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="30" t="s">
         <v>86</v>
       </c>
@@ -6242,7 +6589,7 @@
         <v>0.38297533988952642</v>
       </c>
       <c r="I85" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.0487804878048781</v>
       </c>
       <c r="J85" s="31"/>
@@ -6264,8 +6611,12 @@
       <c r="P85" s="26">
         <v>0.38297533988952642</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q85" s="68">
+        <f t="shared" si="2"/>
+        <v>833.19110675391948</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="30" t="s">
         <v>87</v>
       </c>
@@ -6291,7 +6642,7 @@
         <v>0.33211112022399902</v>
       </c>
       <c r="I86" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.0487804878048781</v>
       </c>
       <c r="J86" s="31"/>
@@ -6313,8 +6664,12 @@
       <c r="P86" s="26">
         <v>0.32413196563720698</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q86" s="68">
+        <f t="shared" si="2"/>
+        <v>776.32893166255042</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="30" t="s">
         <v>88</v>
       </c>
@@ -6340,7 +6695,7 @@
         <v>0.35804200172424322</v>
       </c>
       <c r="I87" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.0487804878048781</v>
       </c>
       <c r="J87" s="31"/>
@@ -6362,8 +6717,12 @@
       <c r="P87" s="26">
         <v>0.34407973289489752</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q87" s="68">
+        <f t="shared" si="2"/>
+        <v>802.43945763862496</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="30" t="s">
         <v>89</v>
       </c>
@@ -6389,7 +6748,7 @@
         <v>0.38098025321960449</v>
       </c>
       <c r="I88" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9268292682926829</v>
       </c>
       <c r="J88" s="31"/>
@@ -6411,8 +6770,12 @@
       <c r="P88" s="26">
         <v>0.35305571556091309</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q88" s="68">
+        <f t="shared" si="2"/>
+        <v>758.3668920319202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="30" t="s">
         <v>90</v>
       </c>
@@ -6438,7 +6801,7 @@
         <v>0.35657143592834473</v>
       </c>
       <c r="I89" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.0847457627118651</v>
       </c>
       <c r="J89" s="31"/>
@@ -6460,8 +6823,12 @@
       <c r="P89" s="26">
         <v>0.33211112022399902</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q89" s="68">
+        <f t="shared" si="2"/>
+        <v>854.66992733943414</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="30" t="s">
         <v>91</v>
       </c>
@@ -6487,7 +6854,7 @@
         <v>0.35006332397460938</v>
       </c>
       <c r="I90" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9096045197740121</v>
       </c>
       <c r="J90" s="31"/>
@@ -6509,8 +6876,12 @@
       <c r="P90" s="26">
         <v>0.33162045478820801</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q90" s="68">
+        <f t="shared" si="2"/>
+        <v>849.04858802470358</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="30" t="s">
         <v>92</v>
       </c>
@@ -6536,7 +6907,7 @@
         <v>0.36256051063537598</v>
       </c>
       <c r="I91" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.9548022598870061</v>
       </c>
       <c r="J91" s="31"/>
@@ -6558,8 +6929,12 @@
       <c r="P91" s="26">
         <v>0.34707164764404302</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q91" s="68">
+        <f t="shared" si="2"/>
+        <v>839.66661877841966</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="30" t="s">
         <v>93</v>
       </c>
@@ -6585,7 +6960,7 @@
         <v>0.38641619682312012</v>
       </c>
       <c r="I92" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.0847457627118651</v>
       </c>
       <c r="J92" s="31"/>
@@ -6607,8 +6982,12 @@
       <c r="P92" s="26">
         <v>0.36901235580444341</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q92" s="68">
+        <f t="shared" si="2"/>
+        <v>863.59210140753316</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="30" t="s">
         <v>94</v>
       </c>
@@ -6634,7 +7013,7 @@
         <v>0.43284177780151373</v>
       </c>
       <c r="I93" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6949152542372881</v>
       </c>
       <c r="J93" s="31"/>
@@ -6656,8 +7035,12 @@
       <c r="P93" s="26">
         <v>0.37699174880981451</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q93" s="68">
+        <f t="shared" si="2"/>
+        <v>854.97609108101688</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="30" t="s">
         <v>95</v>
       </c>
@@ -6683,7 +7066,7 @@
         <v>0.39548325538635248</v>
       </c>
       <c r="I94" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.6881720430107525</v>
       </c>
       <c r="J94" s="31"/>
@@ -6705,8 +7088,12 @@
       <c r="P94" s="26">
         <v>0.40192413330078119</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q94" s="68">
+        <f t="shared" si="2"/>
+        <v>903.65615934694517</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="30" t="s">
         <v>96</v>
       </c>
@@ -6732,7 +7119,7 @@
         <v>0.65125679969787598</v>
       </c>
       <c r="I95" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6129032258064515</v>
       </c>
       <c r="J95" s="31"/>
@@ -6754,8 +7141,12 @@
       <c r="P95" s="26">
         <v>0.36103367805480963</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q95" s="68">
+        <f t="shared" si="2"/>
+        <v>913.70261438046225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="30" t="s">
         <v>97</v>
       </c>
@@ -6781,7 +7172,7 @@
         <v>0.37212705612182623</v>
       </c>
       <c r="I96" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.763440860215054</v>
       </c>
       <c r="J96" s="31"/>
@@ -6803,8 +7194,12 @@
       <c r="P96" s="26">
         <v>0.37798905372619629</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q96" s="68">
+        <f t="shared" ref="Q96:Q159" si="4">MAX(K96,M96,O96)</f>
+        <v>923.71502853453444</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="30" t="s">
         <v>98</v>
       </c>
@@ -6830,7 +7225,7 @@
         <v>0.40092706680297852</v>
       </c>
       <c r="I97" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1505376344086025</v>
       </c>
       <c r="J97" s="31"/>
@@ -6852,8 +7247,12 @@
       <c r="P97" s="26">
         <v>0.3815162181854248</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q97" s="68">
+        <f t="shared" si="4"/>
+        <v>921.12148654398277</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="30" t="s">
         <v>99</v>
       </c>
@@ -6879,7 +7278,7 @@
         <v>0.46009016036987299</v>
       </c>
       <c r="I98" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.3010752688172049</v>
       </c>
       <c r="J98" s="31"/>
@@ -6901,8 +7300,12 @@
       <c r="P98" s="26">
         <v>0.40217709541320801</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q98" s="68">
+        <f t="shared" si="4"/>
+        <v>927.65127769364858</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="30" t="s">
         <v>100</v>
       </c>
@@ -6928,7 +7331,7 @@
         <v>0.64726924896240234</v>
       </c>
       <c r="I99" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5252525252525251</v>
       </c>
       <c r="J99" s="31"/>
@@ -6950,8 +7353,12 @@
       <c r="P99" s="26">
         <v>0.3700098991394043</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q99" s="68">
+        <f t="shared" si="4"/>
+        <v>969.7435057123073</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="30" t="s">
         <v>101</v>
       </c>
@@ -6977,7 +7384,7 @@
         <v>0.52492189407348633</v>
       </c>
       <c r="I100" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.0606060606060606</v>
       </c>
       <c r="J100" s="31"/>
@@ -6999,8 +7406,12 @@
       <c r="P100" s="26">
         <v>0.36570000648498541</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q100" s="68">
+        <f t="shared" si="4"/>
+        <v>929.07921408046479</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="30" t="s">
         <v>102</v>
       </c>
@@ -7026,7 +7437,7 @@
         <v>0.47971630096435552</v>
       </c>
       <c r="I101" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.5656565656565666</v>
       </c>
       <c r="J101" s="31"/>
@@ -7048,8 +7459,12 @@
       <c r="P101" s="26">
         <v>0.3742682933807373</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q101" s="68">
+        <f t="shared" si="4"/>
+        <v>928.70245200401212</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="30" t="s">
         <v>103</v>
       </c>
@@ -7075,7 +7490,7 @@
         <v>0.48664569854736328</v>
       </c>
       <c r="I102" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.0606060606060606</v>
       </c>
       <c r="J102" s="31"/>
@@ -7097,8 +7512,12 @@
       <c r="P102" s="26">
         <v>0.39195084571838379</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q102" s="68">
+        <f t="shared" si="4"/>
+        <v>952.47258762500769</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="30" t="s">
         <v>104</v>
       </c>
@@ -7124,7 +7543,7 @@
         <v>0.48570060729980469</v>
       </c>
       <c r="I103" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.0505050505050502</v>
       </c>
       <c r="J103" s="31"/>
@@ -7146,8 +7565,12 @@
       <c r="P103" s="26">
         <v>0.41056537628173828</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q103" s="68">
+        <f t="shared" si="4"/>
+        <v>923.42729227451662</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="30" t="s">
         <v>105</v>
       </c>
@@ -7173,7 +7596,7 @@
         <v>0.40101718902587891</v>
       </c>
       <c r="I104" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.8543689320388346</v>
       </c>
       <c r="J104" s="31"/>
@@ -7195,8 +7618,12 @@
       <c r="P104" s="26">
         <v>0.36701774597167969</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q104" s="68">
+        <f t="shared" si="4"/>
+        <v>953.99375229547422</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="30" t="s">
         <v>106</v>
       </c>
@@ -7222,7 +7649,7 @@
         <v>0.48769545555114752</v>
       </c>
       <c r="I105" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.8834951456310676</v>
       </c>
       <c r="J105" s="31"/>
@@ -7244,8 +7671,12 @@
       <c r="P105" s="26">
         <v>0.39646363258361822</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q105" s="68">
+        <f t="shared" si="4"/>
+        <v>994.55554695858473</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="30" t="s">
         <v>107</v>
       </c>
@@ -7271,7 +7702,7 @@
         <v>0.42244577407836909</v>
       </c>
       <c r="I106" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.3106796116504853</v>
       </c>
       <c r="J106" s="31"/>
@@ -7293,8 +7724,12 @@
       <c r="P106" s="26">
         <v>0.39222979545593262</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q106" s="68">
+        <f t="shared" si="4"/>
+        <v>955.6114368237445</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="30" t="s">
         <v>108</v>
       </c>
@@ -7320,7 +7755,7 @@
         <v>0.54559445381164551</v>
       </c>
       <c r="I107" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4271844660194173</v>
       </c>
       <c r="J107" s="31"/>
@@ -7342,8 +7777,12 @@
       <c r="P107" s="26">
         <v>0.4059135913848877</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q107" s="68">
+        <f t="shared" si="4"/>
+        <v>954.58872418350063</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="30" t="s">
         <v>109</v>
       </c>
@@ -7369,7 +7808,7 @@
         <v>0.50657367706298828</v>
       </c>
       <c r="I108" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.8834951456310676</v>
       </c>
       <c r="J108" s="31"/>
@@ -7391,8 +7830,12 @@
       <c r="P108" s="26">
         <v>0.4225468635559082</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q108" s="68">
+        <f t="shared" si="4"/>
+        <v>1009.043646583637</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="30" t="s">
         <v>110</v>
       </c>
@@ -7418,7 +7861,7 @@
         <v>0.57831859588623047</v>
       </c>
       <c r="I109" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4271844660194173</v>
       </c>
       <c r="J109" s="31"/>
@@ -7440,8 +7883,12 @@
       <c r="P109" s="26">
         <v>0.46276211738586431</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q109" s="68">
+        <f t="shared" si="4"/>
+        <v>969.62430938276361</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="30" t="s">
         <v>111</v>
       </c>
@@ -7467,7 +7914,7 @@
         <v>0.60848665237426758</v>
       </c>
       <c r="I110" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.3106796116504853</v>
       </c>
       <c r="J110" s="31"/>
@@ -7489,8 +7936,12 @@
       <c r="P110" s="26">
         <v>0.45436620712280268</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q110" s="68">
+        <f t="shared" si="4"/>
+        <v>960.82550319223878</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="30" t="s">
         <v>112</v>
       </c>
@@ -7516,7 +7967,7 @@
         <v>0.58881068229675293</v>
       </c>
       <c r="I111" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.3398058252427179</v>
       </c>
       <c r="J111" s="31"/>
@@ -7538,8 +7989,12 @@
       <c r="P111" s="26">
         <v>0.45777487754821777</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q111" s="68">
+        <f t="shared" si="4"/>
+        <v>934.08790850710864</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="30" t="s">
         <v>113</v>
       </c>
@@ -7565,7 +8020,7 @@
         <v>0.60277795791625977</v>
       </c>
       <c r="I112" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.912621359223301</v>
       </c>
       <c r="J112" s="31"/>
@@ -7587,8 +8042,12 @@
       <c r="P112" s="26">
         <v>0.47026705741882319</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q112" s="68">
+        <f t="shared" si="4"/>
+        <v>943.77531363921389</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="30" t="s">
         <v>114</v>
       </c>
@@ -7614,7 +8073,7 @@
         <v>0.64052557945251465</v>
       </c>
       <c r="I113" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.7961165048543686</v>
       </c>
       <c r="J113" s="31"/>
@@ -7636,8 +8095,12 @@
       <c r="P113" s="26">
         <v>0.53045797348022461</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q113" s="68">
+        <f t="shared" si="4"/>
+        <v>957.01101560832865</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="30" t="s">
         <v>115</v>
       </c>
@@ -7663,7 +8126,7 @@
         <v>0.63031315803527832</v>
       </c>
       <c r="I114" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.3398058252427179</v>
       </c>
       <c r="J114" s="31"/>
@@ -7685,8 +8148,12 @@
       <c r="P114" s="26">
         <v>0.53368473052978516</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q114" s="68">
+        <f t="shared" si="4"/>
+        <v>937.57190672635602</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="30" t="s">
         <v>116</v>
       </c>
@@ -7712,7 +8179,7 @@
         <v>0.74657464027404785</v>
       </c>
       <c r="I115" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.912621359223301</v>
       </c>
       <c r="J115" s="31"/>
@@ -7734,8 +8201,12 @@
       <c r="P115" s="26">
         <v>0.56049919128417969</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q115" s="68">
+        <f t="shared" si="4"/>
+        <v>988.59754925571463</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="30" t="s">
         <v>117</v>
       </c>
@@ -7761,7 +8232,7 @@
         <v>0.69591641426086426</v>
       </c>
       <c r="I116" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4271844660194173</v>
       </c>
       <c r="J116" s="31"/>
@@ -7783,8 +8254,12 @@
       <c r="P116" s="26">
         <v>0.52287602424621582</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q116" s="68">
+        <f t="shared" si="4"/>
+        <v>956.02331166606791</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="30" t="s">
         <v>118</v>
       </c>
@@ -7810,7 +8285,7 @@
         <v>0.69414305686950684</v>
       </c>
       <c r="I117" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.3980582524271843</v>
       </c>
       <c r="J117" s="31"/>
@@ -7832,8 +8307,12 @@
       <c r="P117" s="26">
         <v>0.55651187896728516</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q117" s="68">
+        <f t="shared" si="4"/>
+        <v>935.27953388095511</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="30" t="s">
         <v>119</v>
       </c>
@@ -7859,7 +8338,7 @@
         <v>0.4623560905456543</v>
       </c>
       <c r="I118" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.6728971962616823</v>
       </c>
       <c r="J118" s="31"/>
@@ -7881,8 +8360,12 @@
       <c r="P118" s="26">
         <v>0.43953800201416021</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q118" s="68">
+        <f t="shared" si="4"/>
+        <v>1015.311325488513</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="30" t="s">
         <v>120</v>
       </c>
@@ -7908,7 +8391,7 @@
         <v>0.47373318672180181</v>
       </c>
       <c r="I119" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.2056074766355138</v>
       </c>
       <c r="J119" s="31"/>
@@ -7930,8 +8413,12 @@
       <c r="P119" s="26">
         <v>0.44082045555114752</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q119" s="68">
+        <f t="shared" si="4"/>
+        <v>997.65135227349856</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="30" t="s">
         <v>121</v>
       </c>
@@ -7957,7 +8444,7 @@
         <v>0.43940114974975591</v>
       </c>
       <c r="I120" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9439252336448591</v>
       </c>
       <c r="J120" s="31"/>
@@ -7979,8 +8466,12 @@
       <c r="P120" s="26">
         <v>0.46538186073303223</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q120" s="68">
+        <f t="shared" si="4"/>
+        <v>998.66199989547147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="30" t="s">
         <v>122</v>
       </c>
@@ -8006,7 +8497,7 @@
         <v>0.61854457855224609</v>
       </c>
       <c r="I121" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2710280373831773</v>
       </c>
       <c r="J121" s="31"/>
@@ -8028,8 +8519,12 @@
       <c r="P121" s="26">
         <v>0.63330650329589844</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q121" s="68">
+        <f t="shared" si="4"/>
+        <v>989.90627676374993</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="30" t="s">
         <v>123</v>
       </c>
@@ -8055,7 +8550,7 @@
         <v>0.54147720336914063</v>
       </c>
       <c r="I122" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.6074766355140184</v>
       </c>
       <c r="J122" s="31"/>
@@ -8077,8 +8572,12 @@
       <c r="P122" s="26">
         <v>0.59732437133789063</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q122" s="68">
+        <f t="shared" si="4"/>
+        <v>1012.538944317682</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="30" t="s">
         <v>124</v>
       </c>
@@ -8104,7 +8603,7 @@
         <v>0.59296846389770508</v>
       </c>
       <c r="I123" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.8037383177570092</v>
       </c>
       <c r="J123" s="31"/>
@@ -8126,8 +8625,12 @@
       <c r="P123" s="26">
         <v>0.48769497871398931</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q123" s="68">
+        <f t="shared" si="4"/>
+        <v>1013.74754513556</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="30" t="s">
         <v>125</v>
       </c>
@@ -8153,7 +8656,7 @@
         <v>0.58248162269592285</v>
       </c>
       <c r="I124" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.1401869158878499</v>
       </c>
       <c r="J124" s="31"/>
@@ -8175,8 +8678,12 @@
       <c r="P124" s="26">
         <v>0.52543973922729492</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q124" s="68">
+        <f t="shared" si="4"/>
+        <v>981.41897876261453</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="30" t="s">
         <v>126</v>
       </c>
@@ -8202,7 +8709,7 @@
         <v>0.60699820518493652</v>
       </c>
       <c r="I125" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.2056074766355138</v>
       </c>
       <c r="J125" s="31"/>
@@ -8224,8 +8731,12 @@
       <c r="P125" s="26">
         <v>0.58443641662597656</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q125" s="68">
+        <f t="shared" si="4"/>
+        <v>970.85119443933854</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="30" t="s">
         <v>127</v>
       </c>
@@ -8251,7 +8762,7 @@
         <v>0.54155063629150391</v>
       </c>
       <c r="I126" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2710280373831773</v>
       </c>
       <c r="J126" s="31"/>
@@ -8273,8 +8784,12 @@
       <c r="P126" s="26">
         <v>0.5531611442565918</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q126" s="68">
+        <f t="shared" si="4"/>
+        <v>973.89766870255903</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="30" t="s">
         <v>128</v>
       </c>
@@ -8300,7 +8815,7 @@
         <v>0.6816093921661377</v>
       </c>
       <c r="I127" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.2056074766355138</v>
       </c>
       <c r="J127" s="31"/>
@@ -8322,8 +8837,12 @@
       <c r="P127" s="26">
         <v>0.52713346481323242</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q127" s="68">
+        <f t="shared" si="4"/>
+        <v>982.3706715951796</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="30" t="s">
         <v>129</v>
       </c>
@@ -8349,7 +8868,7 @@
         <v>0.69338393211364746</v>
       </c>
       <c r="I128" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.5420560747663545</v>
       </c>
       <c r="J128" s="31"/>
@@ -8371,8 +8890,12 @@
       <c r="P128" s="26">
         <v>0.51966071128845215</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q128" s="68">
+        <f t="shared" si="4"/>
+        <v>989.12406505445415</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="30" t="s">
         <v>130</v>
       </c>
@@ -8398,7 +8921,7 @@
         <v>0.80708169937133789</v>
       </c>
       <c r="I129" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.7383177570093453</v>
       </c>
       <c r="J129" s="31"/>
@@ -8420,8 +8943,12 @@
       <c r="P129" s="26">
         <v>0.54408693313598633</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q129" s="68">
+        <f t="shared" si="4"/>
+        <v>994.17164069213811</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="30" t="s">
         <v>131</v>
       </c>
@@ -8447,7 +8974,7 @@
         <v>0.69831347465515137</v>
       </c>
       <c r="I130" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.6728971962616823</v>
       </c>
       <c r="J130" s="31"/>
@@ -8469,8 +8996,12 @@
       <c r="P130" s="26">
         <v>0.62034511566162109</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q130" s="68">
+        <f t="shared" si="4"/>
+        <v>988.99108078714448</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="30" t="s">
         <v>132</v>
       </c>
@@ -8496,7 +9027,7 @@
         <v>0.69029092788696289</v>
       </c>
       <c r="I131" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2710280373831773</v>
       </c>
       <c r="J131" s="31"/>
@@ -8518,8 +9049,12 @@
       <c r="P131" s="26">
         <v>0.62749099731445313</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q131" s="68">
+        <f t="shared" si="4"/>
+        <v>1006.0300690725491</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="30" t="s">
         <v>133</v>
       </c>
@@ -8545,7 +9080,7 @@
         <v>0.28224396705627441</v>
       </c>
       <c r="I132" s="14">
-        <f t="shared" ref="I132:I195" si="2">((B132-MAX(C132,E132,G132))/B132)*100</f>
+        <f t="shared" ref="I132:I195" si="5">((B132-MAX(C132,E132,G132))/B132)*100</f>
         <v>0.86956521739130432</v>
       </c>
       <c r="J132" s="31"/>
@@ -8567,8 +9102,12 @@
       <c r="P132" s="26">
         <v>0.21043634414672849</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q132" s="68">
+        <f t="shared" si="4"/>
+        <v>477.1050908693731</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="30" t="s">
         <v>134</v>
       </c>
@@ -8594,7 +9133,7 @@
         <v>0.32643318176269531</v>
       </c>
       <c r="I133" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.86956521739130432</v>
       </c>
       <c r="J133" s="31"/>
@@ -8616,8 +9155,12 @@
       <c r="P133" s="26">
         <v>0.262298583984375</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q133" s="68">
+        <f t="shared" si="4"/>
+        <v>478.87733404665568</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="30" t="s">
         <v>135</v>
       </c>
@@ -8643,7 +9186,7 @@
         <v>0.25513267517089838</v>
       </c>
       <c r="I134" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.86956521739130432</v>
       </c>
       <c r="J134" s="31"/>
@@ -8665,8 +9208,12 @@
       <c r="P134" s="26">
         <v>0.23988509178161621</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q134" s="68">
+        <f t="shared" si="4"/>
+        <v>487.36742639980378</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="30" t="s">
         <v>136</v>
       </c>
@@ -8692,7 +9239,7 @@
         <v>0.28688669204711909</v>
       </c>
       <c r="I135" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.86956521739130432</v>
       </c>
       <c r="J135" s="31"/>
@@ -8714,8 +9261,12 @@
       <c r="P135" s="26">
         <v>0.23987603187561041</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q135" s="68">
+        <f t="shared" si="4"/>
+        <v>489.66073048939143</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="30" t="s">
         <v>137</v>
       </c>
@@ -8741,7 +9292,7 @@
         <v>0.26418828964233398</v>
       </c>
       <c r="I136" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.86956521739130432</v>
       </c>
       <c r="J136" s="31"/>
@@ -8763,8 +9314,12 @@
       <c r="P136" s="26">
         <v>0.25132632255554199</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q136" s="68">
+        <f t="shared" si="4"/>
+        <v>480.08485930411842</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="30" t="s">
         <v>138</v>
       </c>
@@ -8790,7 +9345,7 @@
         <v>0.27518606185913091</v>
       </c>
       <c r="I137" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5384615384615385</v>
       </c>
       <c r="J137" s="31"/>
@@ -8812,8 +9367,12 @@
       <c r="P137" s="26">
         <v>0.22041010856628421</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q137" s="68">
+        <f t="shared" si="4"/>
+        <v>540.59090102225809</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="30" t="s">
         <v>139</v>
       </c>
@@ -8839,7 +9398,7 @@
         <v>0.29573559761047358</v>
       </c>
       <c r="I138" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="J138" s="31"/>
@@ -8861,8 +9420,12 @@
       <c r="P138" s="26">
         <v>0.24187684059143069</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q138" s="68">
+        <f t="shared" si="4"/>
+        <v>550.51074276922043</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="30" t="s">
         <v>140</v>
       </c>
@@ -8888,7 +9451,7 @@
         <v>0.27526283264160162</v>
       </c>
       <c r="I139" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="J139" s="31"/>
@@ -8910,8 +9473,12 @@
       <c r="P139" s="26">
         <v>0.2483820915222168</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q139" s="68">
+        <f t="shared" si="4"/>
+        <v>555.63183551279917</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="30" t="s">
         <v>141</v>
       </c>
@@ -8937,7 +9504,7 @@
         <v>0.26898813247680659</v>
       </c>
       <c r="I140" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="J140" s="31"/>
@@ -8959,8 +9526,12 @@
       <c r="P140" s="26">
         <v>0.25531649589538569</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q140" s="68">
+        <f t="shared" si="4"/>
+        <v>541.42238211042138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="30" t="s">
         <v>142</v>
       </c>
@@ -8986,7 +9557,7 @@
         <v>0.34006881713867188</v>
       </c>
       <c r="I141" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="J141" s="31"/>
@@ -9008,8 +9579,12 @@
       <c r="P141" s="26">
         <v>0.25830888748168951</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q141" s="68">
+        <f t="shared" si="4"/>
+        <v>554.49054512962744</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="30" t="s">
         <v>143</v>
       </c>
@@ -9035,7 +9610,7 @@
         <v>0.28423953056335449</v>
       </c>
       <c r="I142" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.5342465753424657</v>
       </c>
       <c r="J142" s="31"/>
@@ -9057,8 +9632,12 @@
       <c r="P142" s="26">
         <v>0.2398946285247803</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q142" s="68">
+        <f t="shared" si="4"/>
+        <v>577.61299323889159</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="30" t="s">
         <v>144</v>
       </c>
@@ -9084,7 +9663,7 @@
         <v>0.28623390197753912</v>
       </c>
       <c r="I143" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.7397260273972601</v>
       </c>
       <c r="J143" s="31"/>
@@ -9106,8 +9685,12 @@
       <c r="P143" s="26">
         <v>0.25557851791381841</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q143" s="68">
+        <f t="shared" si="4"/>
+        <v>609.89434530140431</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="30" t="s">
         <v>145</v>
       </c>
@@ -9133,7 +9716,7 @@
         <v>0.35243105888366699</v>
       </c>
       <c r="I144" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.054794520547945</v>
       </c>
       <c r="J144" s="31"/>
@@ -9155,8 +9738,12 @@
       <c r="P144" s="26">
         <v>0.26628708839416498</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q144" s="68">
+        <f t="shared" si="4"/>
+        <v>608.26370996027549</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="30" t="s">
         <v>146</v>
       </c>
@@ -9182,7 +9769,7 @@
         <v>0.31746029853820801</v>
       </c>
       <c r="I145" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.5342465753424657</v>
       </c>
       <c r="J145" s="31"/>
@@ -9204,8 +9791,12 @@
       <c r="P145" s="26">
         <v>0.26928043365478521</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q145" s="68">
+        <f t="shared" si="4"/>
+        <v>624.27534453436851</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="30" t="s">
         <v>147</v>
       </c>
@@ -9231,7 +9822,7 @@
         <v>0.2872312068939209</v>
       </c>
       <c r="I146" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.1643835616438354</v>
       </c>
       <c r="J146" s="31"/>
@@ -9253,8 +9844,12 @@
       <c r="P146" s="26">
         <v>0.27887272834777832</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q146" s="68">
+        <f t="shared" si="4"/>
+        <v>577.7191786100193</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="30" t="s">
         <v>148</v>
       </c>
@@ -9280,7 +9875,7 @@
         <v>0.3151860237121582</v>
       </c>
       <c r="I147" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.60606060606060608</v>
       </c>
       <c r="J147" s="31"/>
@@ -9302,8 +9897,12 @@
       <c r="P147" s="26">
         <v>0.26429295539855963</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q147" s="68">
+        <f t="shared" si="4"/>
+        <v>675.35757753945279</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="30" t="s">
         <v>149</v>
       </c>
@@ -9329,7 +9928,7 @@
         <v>0.28224492073059082</v>
       </c>
       <c r="I148" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J148" s="31"/>
@@ -9351,8 +9950,12 @@
       <c r="P148" s="26">
         <v>0.27925276756286621</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q148" s="68">
+        <f t="shared" si="4"/>
+        <v>699.3810512455459</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="30" t="s">
         <v>150</v>
       </c>
@@ -9378,7 +9981,7 @@
         <v>0.32812762260437012</v>
       </c>
       <c r="I149" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.60606060606060608</v>
       </c>
       <c r="J149" s="31"/>
@@ -9400,8 +10003,12 @@
       <c r="P149" s="26">
         <v>0.28224515914916992</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q149" s="68">
+        <f t="shared" si="4"/>
+        <v>718.44653240196646</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="30" t="s">
         <v>151</v>
       </c>
@@ -9427,7 +10034,7 @@
         <v>0.32220125198364258</v>
       </c>
       <c r="I150" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J150" s="31"/>
@@ -9449,8 +10056,12 @@
       <c r="P150" s="26">
         <v>0.29883146286010742</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q150" s="68">
+        <f t="shared" si="4"/>
+        <v>707.35933887029387</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="30" t="s">
         <v>152</v>
       </c>
@@ -9476,7 +10087,7 @@
         <v>0.30222296714782709</v>
       </c>
       <c r="I151" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J151" s="31"/>
@@ -9498,8 +10109,12 @@
       <c r="P151" s="26">
         <v>0.30019569396972662</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q151" s="68">
+        <f t="shared" si="4"/>
+        <v>705.93842301809377</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="30" t="s">
         <v>153</v>
       </c>
@@ -9525,7 +10140,7 @@
         <v>0.40092754364013672</v>
       </c>
       <c r="I152" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.639344262295082</v>
       </c>
       <c r="J152" s="31"/>
@@ -9547,8 +10162,12 @@
       <c r="P152" s="26">
         <v>0.40790867805480963</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q152" s="68">
+        <f t="shared" si="4"/>
+        <v>765.11207681081464</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="30" t="s">
         <v>154</v>
       </c>
@@ -9574,7 +10193,7 @@
         <v>0.27795648574829102</v>
       </c>
       <c r="I153" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.278688524590164</v>
       </c>
       <c r="J153" s="31"/>
@@ -9596,8 +10215,12 @@
       <c r="P153" s="26">
         <v>0.3651573657989502</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q153" s="68">
+        <f t="shared" si="4"/>
+        <v>768.24240875143732</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="30" t="s">
         <v>155</v>
       </c>
@@ -9623,7 +10246,7 @@
         <v>0.29855227470397949</v>
       </c>
       <c r="I154" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.639344262295082</v>
       </c>
       <c r="J154" s="31"/>
@@ -9645,8 +10268,12 @@
       <c r="P154" s="26">
         <v>0.37399959564208979</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q154" s="68">
+        <f t="shared" si="4"/>
+        <v>781.78613251288448</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="30" t="s">
         <v>156</v>
       </c>
@@ -9672,7 +10299,7 @@
         <v>0.37898612022399902</v>
       </c>
       <c r="I155" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.7322404371584699</v>
       </c>
       <c r="J155" s="31"/>
@@ -9694,8 +10321,12 @@
       <c r="P155" s="26">
         <v>0.3479161262512207</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q155" s="68">
+        <f t="shared" si="4"/>
+        <v>760.83049778867064</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="30" t="s">
         <v>157</v>
       </c>
@@ -9721,7 +10352,7 @@
         <v>0.41910839080810552</v>
       </c>
       <c r="I156" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.639344262295082</v>
       </c>
       <c r="J156" s="31"/>
@@ -9743,8 +10374,12 @@
       <c r="P156" s="26">
         <v>0.36754179000854492</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q156" s="68">
+        <f t="shared" si="4"/>
+        <v>785.97877621194436</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="30" t="s">
         <v>158</v>
       </c>
@@ -9770,7 +10405,7 @@
         <v>0.7071077823638916</v>
       </c>
       <c r="I157" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.0898203592814371</v>
       </c>
       <c r="J157" s="31"/>
@@ -9792,8 +10427,12 @@
       <c r="P157" s="26">
         <v>0.65280914306640625</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q157" s="68">
+        <f t="shared" si="4"/>
+        <v>1411.9498491947461</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="30" t="s">
         <v>159</v>
       </c>
@@ -9819,7 +10458,7 @@
         <v>0.54513025283813477</v>
       </c>
       <c r="I158" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.8922155688622757</v>
       </c>
       <c r="J158" s="31"/>
@@ -9841,8 +10480,12 @@
       <c r="P158" s="26">
         <v>0.53161978721618652</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q158" s="68">
+        <f t="shared" si="4"/>
+        <v>1424.1050574456799</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="30" t="s">
         <v>160</v>
       </c>
@@ -9868,7 +10511,7 @@
         <v>0.56500530242919922</v>
       </c>
       <c r="I159" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.4910179640718564</v>
       </c>
       <c r="J159" s="31"/>
@@ -9890,8 +10533,12 @@
       <c r="P159" s="26">
         <v>0.45110154151916498</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q159" s="68">
+        <f t="shared" si="4"/>
+        <v>1379.3131311955931</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="30" t="s">
         <v>161</v>
       </c>
@@ -9917,7 +10564,7 @@
         <v>0.51521801948547363</v>
       </c>
       <c r="I160" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.3892215568862278</v>
       </c>
       <c r="J160" s="31"/>
@@ -9939,8 +10586,12 @@
       <c r="P160" s="26">
         <v>0.54207682609558105</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q160" s="68">
+        <f t="shared" ref="Q160:Q223" si="6">MAX(K160,M160,O160)</f>
+        <v>1382.3479383421461</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="30" t="s">
         <v>162</v>
       </c>
@@ -9966,7 +10617,7 @@
         <v>0.55264377593994141</v>
       </c>
       <c r="I161" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.9940119760479043</v>
       </c>
       <c r="J161" s="31"/>
@@ -9988,8 +10639,12 @@
       <c r="P161" s="26">
         <v>0.56676745414733887</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q161" s="68">
+        <f t="shared" si="6"/>
+        <v>1427.3048944583229</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="30" t="s">
         <v>163</v>
       </c>
@@ -10015,7 +10670,7 @@
         <v>0.53661608695983887</v>
       </c>
       <c r="I162" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.8922155688622757</v>
       </c>
       <c r="J162" s="31"/>
@@ -10037,8 +10692,12 @@
       <c r="P162" s="26">
         <v>0.50764203071594238</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q162" s="68">
+        <f t="shared" si="6"/>
+        <v>1390.237894796132</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="30" t="s">
         <v>164</v>
       </c>
@@ -10064,7 +10723,7 @@
         <v>0.85359477996826172</v>
       </c>
       <c r="I163" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.3952095808383236</v>
       </c>
       <c r="J163" s="31"/>
@@ -10086,8 +10745,12 @@
       <c r="P163" s="26">
         <v>0.55936360359191895</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q163" s="68">
+        <f t="shared" si="6"/>
+        <v>1409.7556150587559</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="30" t="s">
         <v>165</v>
       </c>
@@ -10113,7 +10776,7 @@
         <v>1.621932744979858</v>
       </c>
       <c r="I164" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.1916167664670656</v>
       </c>
       <c r="J164" s="31"/>
@@ -10135,8 +10798,12 @@
       <c r="P164" s="26">
         <v>0.57645797729492188</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q164" s="68">
+        <f t="shared" si="6"/>
+        <v>1423.021729746599</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="30" t="s">
         <v>166</v>
       </c>
@@ -10162,7 +10829,7 @@
         <v>0.90422630310058594</v>
       </c>
       <c r="I165" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.5928143712574849</v>
       </c>
       <c r="J165" s="31"/>
@@ -10184,8 +10851,12 @@
       <c r="P165" s="26">
         <v>0.58141994476318359</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q165" s="68">
+        <f t="shared" si="6"/>
+        <v>1415.6722637884691</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="30" t="s">
         <v>167</v>
       </c>
@@ -10211,7 +10882,7 @@
         <v>1.311281204223633</v>
       </c>
       <c r="I166" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.6946107784431139</v>
       </c>
       <c r="J166" s="31"/>
@@ -10233,8 +10904,12 @@
       <c r="P166" s="26">
         <v>0.60991859436035156</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q166" s="68">
+        <f t="shared" si="6"/>
+        <v>1430.6131597912999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="30" t="s">
         <v>168</v>
       </c>
@@ -10260,7 +10935,7 @@
         <v>0.88454031944274902</v>
       </c>
       <c r="I167" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.8922155688622757</v>
       </c>
       <c r="J167" s="31"/>
@@ -10282,8 +10957,12 @@
       <c r="P167" s="26">
         <v>0.59797191619873047</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q167" s="68">
+        <f t="shared" si="6"/>
+        <v>1414.7366103603381</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="30" t="s">
         <v>169</v>
       </c>
@@ -10309,7 +10988,7 @@
         <v>1.1285054683685301</v>
       </c>
       <c r="I168" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.9940119760479043</v>
       </c>
       <c r="J168" s="31"/>
@@ -10331,8 +11010,12 @@
       <c r="P168" s="26">
         <v>0.61458492279052734</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q168" s="68">
+        <f t="shared" si="6"/>
+        <v>1430.801207201378</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="30" t="s">
         <v>170</v>
       </c>
@@ -10358,7 +11041,7 @@
         <v>0.86129999160766602</v>
       </c>
       <c r="I169" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.9940119760479043</v>
       </c>
       <c r="J169" s="31"/>
@@ -10380,8 +11063,12 @@
       <c r="P169" s="26">
         <v>0.63131093978881836</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q169" s="68">
+        <f t="shared" si="6"/>
+        <v>1429.3519585356951</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="30" t="s">
         <v>171</v>
       </c>
@@ -10407,7 +11094,7 @@
         <v>0.71064305305480957</v>
       </c>
       <c r="I170" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.9940119760479043</v>
       </c>
       <c r="J170" s="31"/>
@@ -10429,8 +11116,12 @@
       <c r="P170" s="26">
         <v>0.62308835983276367</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q170" s="68">
+        <f t="shared" si="6"/>
+        <v>1427.1343503238761</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="30" t="s">
         <v>172</v>
       </c>
@@ -10456,7 +11147,7 @@
         <v>0.65527582168579102</v>
       </c>
       <c r="I171" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.7619047619047619</v>
       </c>
       <c r="J171" s="31"/>
@@ -10478,8 +11169,12 @@
       <c r="P171" s="26">
         <v>0.5849606990814209</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q171" s="68">
+        <f t="shared" si="6"/>
+        <v>1402.8829448213171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="30" t="s">
         <v>173</v>
       </c>
@@ -10505,7 +11200,7 @@
         <v>0.7128903865814209</v>
       </c>
       <c r="I172" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.083333333333333</v>
       </c>
       <c r="J172" s="31"/>
@@ -10527,8 +11222,12 @@
       <c r="P172" s="26">
         <v>0.46180129051208502</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q172" s="68">
+        <f t="shared" si="6"/>
+        <v>1433.693525154813</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="30" t="s">
         <v>174</v>
       </c>
@@ -10554,7 +11253,7 @@
         <v>0.63128829002380371</v>
       </c>
       <c r="I173" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.3809523809523809</v>
       </c>
       <c r="J173" s="31"/>
@@ -10576,8 +11275,12 @@
       <c r="P173" s="26">
         <v>0.47826600074768072</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q173" s="68">
+        <f t="shared" si="6"/>
+        <v>1441.7543771218909</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="30" t="s">
         <v>175</v>
       </c>
@@ -10603,7 +11306,7 @@
         <v>0.62505531311035156</v>
       </c>
       <c r="I174" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.6785714285714284</v>
       </c>
       <c r="J174" s="31"/>
@@ -10625,8 +11328,12 @@
       <c r="P174" s="26">
         <v>0.49970364570617681</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q174" s="68">
+        <f t="shared" si="6"/>
+        <v>1432.4978965742789</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="30" t="s">
         <v>176</v>
       </c>
@@ -10652,7 +11359,7 @@
         <v>0.69484949111938477</v>
       </c>
       <c r="I175" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.59523809523809523</v>
       </c>
       <c r="J175" s="31"/>
@@ -10674,8 +11381,12 @@
       <c r="P175" s="26">
         <v>0.52312707901000977</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q175" s="68">
+        <f t="shared" si="6"/>
+        <v>1434.3019874729009</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="30" t="s">
         <v>177</v>
       </c>
@@ -10701,7 +11412,7 @@
         <v>0.65874338150024414</v>
       </c>
       <c r="I176" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.5714285714285712</v>
       </c>
       <c r="J176" s="31"/>
@@ -10723,8 +11434,12 @@
       <c r="P176" s="26">
         <v>0.53170323371887207</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q176" s="68">
+        <f t="shared" si="6"/>
+        <v>1457.3234798787139</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="30" t="s">
         <v>178</v>
       </c>
@@ -10750,7 +11465,7 @@
         <v>0.70740675926208496</v>
       </c>
       <c r="I177" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.6785714285714284</v>
       </c>
       <c r="J177" s="31"/>
@@ -10772,8 +11487,12 @@
       <c r="P177" s="26">
         <v>0.57734394073486328</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q177" s="68">
+        <f t="shared" si="6"/>
+        <v>1449.695436312868</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="30" t="s">
         <v>179</v>
       </c>
@@ -10799,7 +11518,7 @@
         <v>0.64684748649597168</v>
       </c>
       <c r="I178" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.6785714285714284</v>
       </c>
       <c r="J178" s="31"/>
@@ -10821,8 +11540,12 @@
       <c r="P178" s="26">
         <v>0.57845211029052734</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q178" s="68">
+        <f t="shared" si="6"/>
+        <v>1431.5328277339961</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="30" t="s">
         <v>180</v>
       </c>
@@ -10848,7 +11571,7 @@
         <v>0.75350499153137207</v>
       </c>
       <c r="I179" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.7857142857142856</v>
       </c>
       <c r="J179" s="31"/>
@@ -10870,8 +11593,12 @@
       <c r="P179" s="26">
         <v>0.61649823188781738</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q179" s="68">
+        <f t="shared" si="6"/>
+        <v>1449.003320779163</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="30" t="s">
         <v>181</v>
       </c>
@@ -10897,7 +11624,7 @@
         <v>0.85381650924682617</v>
       </c>
       <c r="I180" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.6785714285714284</v>
       </c>
       <c r="J180" s="31"/>
@@ -10919,8 +11646,12 @@
       <c r="P180" s="26">
         <v>0.6073756217956543</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q180" s="68">
+        <f t="shared" si="6"/>
+        <v>1449.8083794482629</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="30" t="s">
         <v>182</v>
       </c>
@@ -10946,7 +11677,7 @@
         <v>0.85666346549987793</v>
       </c>
       <c r="I181" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.9761904761904758</v>
       </c>
       <c r="J181" s="31"/>
@@ -10968,8 +11699,12 @@
       <c r="P181" s="26">
         <v>0.60745859146118164</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q181" s="68">
+        <f t="shared" si="6"/>
+        <v>1436.9450074320041</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="30" t="s">
         <v>183</v>
       </c>
@@ -10995,7 +11730,7 @@
         <v>0.66883063316345215</v>
       </c>
       <c r="I182" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.7857142857142856</v>
       </c>
       <c r="J182" s="31"/>
@@ -11017,8 +11752,12 @@
       <c r="P182" s="26">
         <v>0.61817646026611328</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q182" s="68">
+        <f t="shared" si="6"/>
+        <v>1461.130604734338</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="30" t="s">
         <v>184</v>
       </c>
@@ -11044,7 +11783,7 @@
         <v>0.69669985771179199</v>
       </c>
       <c r="I183" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.7857142857142856</v>
       </c>
       <c r="J183" s="31"/>
@@ -11066,8 +11805,12 @@
       <c r="P183" s="26">
         <v>0.64826583862304688</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q183" s="68">
+        <f t="shared" si="6"/>
+        <v>1447.7260594102131</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="30" t="s">
         <v>185</v>
       </c>
@@ -11093,7 +11836,7 @@
         <v>0.75718474388122559</v>
       </c>
       <c r="I184" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.7857142857142856</v>
       </c>
       <c r="J184" s="31"/>
@@ -11115,8 +11858,12 @@
       <c r="P184" s="26">
         <v>0.65595626831054688</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q184" s="68">
+        <f t="shared" si="6"/>
+        <v>1454.5826865692279</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="30" t="s">
         <v>186</v>
       </c>
@@ -11142,7 +11889,7 @@
         <v>0.31116747856140142</v>
       </c>
       <c r="I185" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25.433526011560691</v>
       </c>
       <c r="J185" s="31"/>
@@ -11164,8 +11911,12 @@
       <c r="P185" s="26">
         <v>0.21502900123596189</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q185" s="68">
+        <f t="shared" si="6"/>
+        <v>103.71522262851521</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="30" t="s">
         <v>187</v>
       </c>
@@ -11191,7 +11942,7 @@
         <v>0.22163891792297361</v>
       </c>
       <c r="I186" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25.433526011560691</v>
       </c>
       <c r="J186" s="31"/>
@@ -11213,8 +11964,12 @@
       <c r="P186" s="26">
         <v>0.2184150218963623</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q186" s="68">
+        <f t="shared" si="6"/>
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="30" t="s">
         <v>188</v>
       </c>
@@ -11240,7 +11995,7 @@
         <v>0.31220889091491699</v>
       </c>
       <c r="I187" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25.433526011560691</v>
       </c>
       <c r="J187" s="31"/>
@@ -11262,8 +12017,12 @@
       <c r="P187" s="26">
         <v>0.24733805656433111</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q187" s="68">
+        <f t="shared" si="6"/>
+        <v>104.2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="30" t="s">
         <v>189</v>
       </c>
@@ -11289,7 +12048,7 @@
         <v>0.25033020973205572</v>
       </c>
       <c r="I188" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25.433526011560691</v>
       </c>
       <c r="J188" s="31"/>
@@ -11311,8 +12070,12 @@
       <c r="P188" s="26">
         <v>0.245342493057251</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q188" s="68">
+        <f t="shared" si="6"/>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="30" t="s">
         <v>190</v>
       </c>
@@ -11338,7 +12101,7 @@
         <v>0.2982025146484375</v>
       </c>
       <c r="I189" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25.433526011560691</v>
       </c>
       <c r="J189" s="31"/>
@@ -11360,8 +12123,12 @@
       <c r="P189" s="26">
         <v>0.26212430000305181</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q189" s="68">
+        <f t="shared" si="6"/>
+        <v>122.2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="30" t="s">
         <v>191</v>
       </c>
@@ -11387,7 +12154,7 @@
         <v>0.26349854469299322</v>
       </c>
       <c r="I190" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>23.236514522821576</v>
       </c>
       <c r="J190" s="31"/>
@@ -11409,8 +12176,12 @@
       <c r="P190" s="26">
         <v>0.23536968231201169</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q190" s="68">
+        <f t="shared" si="6"/>
+        <v>143.99833637965591</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="30" t="s">
         <v>192</v>
       </c>
@@ -11436,7 +12207,7 @@
         <v>0.27725768089294428</v>
       </c>
       <c r="I191" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22.40663900414938</v>
       </c>
       <c r="J191" s="31"/>
@@ -11458,8 +12229,12 @@
       <c r="P191" s="26">
         <v>0.2403566837310791</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q191" s="68">
+        <f t="shared" si="6"/>
+        <v>150.9988115925706</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="30" t="s">
         <v>193</v>
       </c>
@@ -11485,7 +12260,7 @@
         <v>0.29022383689880371</v>
       </c>
       <c r="I192" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20.331950207468878</v>
       </c>
       <c r="J192" s="31"/>
@@ -11507,8 +12282,12 @@
       <c r="P192" s="26">
         <v>0.28224444389343262</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q192" s="68">
+        <f t="shared" si="6"/>
+        <v>150.80000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" s="30" t="s">
         <v>194</v>
       </c>
@@ -11534,7 +12313,7 @@
         <v>0.29279923439025879</v>
       </c>
       <c r="I193" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22.40663900414938</v>
       </c>
       <c r="J193" s="31"/>
@@ -11556,8 +12335,12 @@
       <c r="P193" s="26">
         <v>0.28037500381469732</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q193" s="68">
+        <f t="shared" si="6"/>
+        <v>148.14605954724121</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="30" t="s">
         <v>195</v>
       </c>
@@ -11583,7 +12366,7 @@
         <v>0.30722570419311518</v>
       </c>
       <c r="I194" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20.331950207468878</v>
       </c>
       <c r="J194" s="31"/>
@@ -11605,8 +12388,12 @@
       <c r="P194" s="26">
         <v>0.37100672721862787</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q194" s="68">
+        <f t="shared" si="6"/>
+        <v>170.6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="30" t="s">
         <v>196</v>
       </c>
@@ -11632,7 +12419,7 @@
         <v>0.27526402473449713</v>
       </c>
       <c r="I195" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>19.063545150501675</v>
       </c>
       <c r="J195" s="31"/>
@@ -11654,8 +12441,12 @@
       <c r="P195" s="26">
         <v>0.32812190055847168</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q195" s="68">
+        <f t="shared" si="6"/>
+        <v>194.61955670358651</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" s="30" t="s">
         <v>197</v>
       </c>
@@ -11681,7 +12472,7 @@
         <v>0.2622983455657959</v>
       </c>
       <c r="I196" s="14">
-        <f t="shared" ref="I196:I259" si="3">((B196-MAX(C196,E196,G196))/B196)*100</f>
+        <f t="shared" ref="I196:I259" si="7">((B196-MAX(C196,E196,G196))/B196)*100</f>
         <v>24.414715719063544</v>
       </c>
       <c r="J196" s="31"/>
@@ -11703,8 +12494,12 @@
       <c r="P196" s="26">
         <v>0.2848050594329834</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q196" s="68">
+        <f t="shared" si="6"/>
+        <v>224.54512475562521</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" s="30" t="s">
         <v>198</v>
       </c>
@@ -11730,7 +12525,7 @@
         <v>0.29475021362304688</v>
       </c>
       <c r="I197" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19.063545150501675</v>
       </c>
       <c r="J197" s="31"/>
@@ -11752,8 +12547,12 @@
       <c r="P197" s="26">
         <v>0.29421186447143549</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q197" s="68">
+        <f t="shared" si="6"/>
+        <v>232.1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="30" t="s">
         <v>199</v>
       </c>
@@ -11779,7 +12578,7 @@
         <v>0.28423976898193359</v>
       </c>
       <c r="I198" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.414715719063544</v>
       </c>
       <c r="J198" s="31"/>
@@ -11801,8 +12600,12 @@
       <c r="P198" s="26">
         <v>0.30318903923034668</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q198" s="68">
+        <f t="shared" si="6"/>
+        <v>182.4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="30" t="s">
         <v>200</v>
       </c>
@@ -11828,7 +12631,7 @@
         <v>0.30518364906311041</v>
       </c>
       <c r="I199" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.411371237458194</v>
       </c>
       <c r="J199" s="31"/>
@@ -11850,8 +12653,12 @@
       <c r="P199" s="26">
         <v>0.3152012825012207</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q199" s="68">
+        <f t="shared" si="6"/>
+        <v>205.4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" s="30" t="s">
         <v>201</v>
       </c>
@@ -11877,7 +12684,7 @@
         <v>0.3047177791595459</v>
       </c>
       <c r="I200" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.708446866485016</v>
       </c>
       <c r="J200" s="31"/>
@@ -11899,8 +12706,12 @@
       <c r="P200" s="26">
         <v>0.28028297424316412</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q200" s="68">
+        <f t="shared" si="6"/>
+        <v>227.84258524337699</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="30" t="s">
         <v>202</v>
       </c>
@@ -11926,7 +12737,7 @@
         <v>0.2989802360534668</v>
       </c>
       <c r="I201" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.705722070844686</v>
       </c>
       <c r="J201" s="31"/>
@@ -11948,8 +12759,12 @@
       <c r="P201" s="26">
         <v>0.27725720405578608</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q201" s="68">
+        <f t="shared" si="6"/>
+        <v>231.52106217790819</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" s="30" t="s">
         <v>203</v>
       </c>
@@ -11975,7 +12790,7 @@
         <v>0.28423905372619629</v>
       </c>
       <c r="I202" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.163487738419619</v>
       </c>
       <c r="J202" s="31"/>
@@ -11997,8 +12812,12 @@
       <c r="P202" s="26">
         <v>0.2902226448059082</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q202" s="68">
+        <f t="shared" si="6"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" s="30" t="s">
         <v>204</v>
       </c>
@@ -12024,7 +12843,7 @@
         <v>0.32014298439025879</v>
       </c>
       <c r="I203" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.250681198910083</v>
       </c>
       <c r="J203" s="31"/>
@@ -12046,8 +12865,12 @@
       <c r="P203" s="26">
         <v>0.31873869895935059</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q203" s="68">
+        <f t="shared" si="6"/>
+        <v>166.2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="30" t="s">
         <v>205</v>
       </c>
@@ -12073,7 +12896,7 @@
         <v>0.31435418128967291</v>
       </c>
       <c r="I204" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.163487738419619</v>
       </c>
       <c r="J204" s="31"/>
@@ -12095,8 +12918,12 @@
       <c r="P204" s="26">
         <v>0.33211088180541992</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q204" s="68">
+        <f t="shared" si="6"/>
+        <v>173.2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" s="30" t="s">
         <v>206</v>
       </c>
@@ -12122,7 +12949,7 @@
         <v>0.39294838905334473</v>
       </c>
       <c r="I205" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>21.11650485436893</v>
       </c>
       <c r="J205" s="31"/>
@@ -12144,8 +12971,12 @@
       <c r="P205" s="26">
         <v>0.36601924896240229</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q205" s="68">
+        <f t="shared" si="6"/>
+        <v>234.7625576359095</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="30" t="s">
         <v>207</v>
       </c>
@@ -12171,7 +13002,7 @@
         <v>0.40951061248779302</v>
       </c>
       <c r="I206" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.543689320388349</v>
       </c>
       <c r="J206" s="31"/>
@@ -12193,8 +13024,12 @@
       <c r="P206" s="26">
         <v>0.40941643714904791</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q206" s="68">
+        <f t="shared" si="6"/>
+        <v>221.2632548581818</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="30" t="s">
         <v>208</v>
       </c>
@@ -12220,7 +13055,7 @@
         <v>0.46479558944702148</v>
       </c>
       <c r="I207" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.543689320388349</v>
       </c>
       <c r="J207" s="31"/>
@@ -12242,8 +13077,12 @@
       <c r="P207" s="26">
         <v>0.40790820121765142</v>
       </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q207" s="68">
+        <f t="shared" si="6"/>
+        <v>244.6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="30" t="s">
         <v>209</v>
       </c>
@@ -12269,7 +13108,7 @@
         <v>0.39693808555603027</v>
       </c>
       <c r="I208" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.330097087378643</v>
       </c>
       <c r="J208" s="31"/>
@@ -12291,8 +13130,12 @@
       <c r="P208" s="26">
         <v>0.45761442184448242</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q208" s="68">
+        <f t="shared" si="6"/>
+        <v>241.49299374481359</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" s="30" t="s">
         <v>210</v>
       </c>
@@ -12318,7 +13161,7 @@
         <v>0.4124000072479248</v>
       </c>
       <c r="I209" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.543689320388349</v>
       </c>
       <c r="J209" s="31"/>
@@ -12340,8 +13183,12 @@
       <c r="P209" s="26">
         <v>0.40691065788269037</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q209" s="68">
+        <f t="shared" si="6"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" s="30" t="s">
         <v>211</v>
       </c>
@@ -12367,7 +13214,7 @@
         <v>0.44879937171936041</v>
       </c>
       <c r="I210" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>21.11650485436893</v>
       </c>
       <c r="J210" s="31"/>
@@ -12389,8 +13236,12 @@
       <c r="P210" s="26">
         <v>0.43515515327453608</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q210" s="68">
+        <f t="shared" si="6"/>
+        <v>208.71752617718781</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="30" t="s">
         <v>212</v>
       </c>
@@ -12416,7 +13267,7 @@
         <v>0.45879721641540527</v>
       </c>
       <c r="I211" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.330097087378643</v>
       </c>
       <c r="J211" s="31"/>
@@ -12438,8 +13289,12 @@
       <c r="P211" s="26">
         <v>0.41341805458068848</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q211" s="68">
+        <f t="shared" si="6"/>
+        <v>179.4734625151101</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="30" t="s">
         <v>213</v>
       </c>
@@ -12465,7 +13320,7 @@
         <v>0.51262831687927246</v>
       </c>
       <c r="I212" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.330097087378643</v>
       </c>
       <c r="J212" s="31"/>
@@ -12487,8 +13342,12 @@
       <c r="P212" s="26">
         <v>0.43583393096923828</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q212" s="68">
+        <f t="shared" si="6"/>
+        <v>168.7873158018277</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="30" t="s">
         <v>214</v>
       </c>
@@ -12514,7 +13373,7 @@
         <v>0.54363393783569336</v>
       </c>
       <c r="I213" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.932038834951456</v>
       </c>
       <c r="J213" s="31"/>
@@ -12536,8 +13395,12 @@
       <c r="P213" s="26">
         <v>0.46855282783508301</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q213" s="68">
+        <f t="shared" si="6"/>
+        <v>185.5725341268093</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="30" t="s">
         <v>215</v>
       </c>
@@ -12563,7 +13426,7 @@
         <v>0.47472977638244629</v>
       </c>
       <c r="I214" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.611111111111111</v>
       </c>
       <c r="J214" s="31"/>
@@ -12585,8 +13448,12 @@
       <c r="P214" s="26">
         <v>0.41788244247436518</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q214" s="68">
+        <f t="shared" si="6"/>
+        <v>258.25099371669251</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="30" t="s">
         <v>216</v>
       </c>
@@ -12612,7 +13479,7 @@
         <v>0.64540719985961914</v>
       </c>
       <c r="I215" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17.460317460317459</v>
       </c>
       <c r="J215" s="31"/>
@@ -12634,8 +13501,12 @@
       <c r="P215" s="26">
         <v>0.45959186553955078</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q215" s="68">
+        <f t="shared" si="6"/>
+        <v>262.29437589324141</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="30" t="s">
         <v>217</v>
       </c>
@@ -12661,7 +13532,7 @@
         <v>0.6915888786315918</v>
       </c>
       <c r="I216" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.61904761904762</v>
       </c>
       <c r="J216" s="31"/>
@@ -12683,8 +13554,12 @@
       <c r="P216" s="26">
         <v>0.48171114921569819</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q216" s="68">
+        <f t="shared" si="6"/>
+        <v>270.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="30" t="s">
         <v>218</v>
       </c>
@@ -12710,7 +13585,7 @@
         <v>0.60936760902404785</v>
       </c>
       <c r="I217" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.650793650793652</v>
       </c>
       <c r="J217" s="31"/>
@@ -12732,8 +13607,12 @@
       <c r="P217" s="26">
         <v>0.44873619079589838</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q217" s="68">
+        <f t="shared" si="6"/>
+        <v>307.59453150858963</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="30" t="s">
         <v>219</v>
       </c>
@@ -12759,7 +13638,7 @@
         <v>0.62434697151184082</v>
       </c>
       <c r="I218" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17.460317460317459</v>
       </c>
       <c r="J218" s="31"/>
@@ -12781,8 +13660,12 @@
       <c r="P218" s="26">
         <v>0.48570036888122559</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q218" s="68">
+        <f t="shared" si="6"/>
+        <v>249.821108118263</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="30" t="s">
         <v>220</v>
       </c>
@@ -12808,7 +13691,7 @@
         <v>0.64928197860717773</v>
       </c>
       <c r="I219" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19.642857142857142</v>
       </c>
       <c r="J219" s="31"/>
@@ -12830,8 +13713,12 @@
       <c r="P219" s="26">
         <v>0.47491097450256348</v>
       </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q219" s="68">
+        <f t="shared" si="6"/>
+        <v>255.6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" s="30" t="s">
         <v>221</v>
       </c>
@@ -12857,7 +13744,7 @@
         <v>0.57546210289001465</v>
       </c>
       <c r="I220" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>21.626984126984127</v>
       </c>
       <c r="J220" s="31"/>
@@ -12879,8 +13766,12 @@
       <c r="P220" s="26">
         <v>0.47971582412719732</v>
       </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q220" s="68">
+        <f t="shared" si="6"/>
+        <v>260.21387473096053</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="30" t="s">
         <v>222</v>
       </c>
@@ -12906,7 +13797,7 @@
         <v>0.59782576560974121</v>
       </c>
       <c r="I221" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.61904761904762</v>
       </c>
       <c r="J221" s="31"/>
@@ -12928,8 +13819,12 @@
       <c r="P221" s="26">
         <v>0.5424644947052002</v>
       </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q221" s="68">
+        <f t="shared" si="6"/>
+        <v>247.9939133582605</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" s="30" t="s">
         <v>223</v>
       </c>
@@ -12955,7 +13850,7 @@
         <v>0.52459621429443359</v>
       </c>
       <c r="I222" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17.460317460317459</v>
       </c>
       <c r="J222" s="31"/>
@@ -12977,8 +13872,12 @@
       <c r="P222" s="26">
         <v>0.5245964527130127</v>
       </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q222" s="68">
+        <f t="shared" si="6"/>
+        <v>237.32208792532791</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" s="30" t="s">
         <v>224</v>
       </c>
@@ -13004,7 +13903,7 @@
         <v>0.8918454647064209</v>
       </c>
       <c r="I223" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.559322033898304</v>
       </c>
       <c r="J223" s="31"/>
@@ -13026,8 +13925,12 @@
       <c r="P223" s="26">
         <v>0.46796369552612299</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q223" s="68">
+        <f t="shared" si="6"/>
+        <v>301.6741311416755</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="30" t="s">
         <v>225</v>
       </c>
@@ -13053,7 +13956,7 @@
         <v>0.59697818756103516</v>
       </c>
       <c r="I224" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.16949152542373</v>
       </c>
       <c r="J224" s="31"/>
@@ -13075,8 +13978,12 @@
       <c r="P224" s="26">
         <v>0.49467587471008301</v>
       </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q224" s="68">
+        <f t="shared" ref="Q224:Q287" si="8">MAX(K224,M224,O224)</f>
+        <v>323.96411501547863</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="30" t="s">
         <v>226</v>
       </c>
@@ -13102,7 +14009,7 @@
         <v>0.64427590370178223</v>
       </c>
       <c r="I225" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.372881355932204</v>
       </c>
       <c r="J225" s="31"/>
@@ -13124,8 +14031,12 @@
       <c r="P225" s="26">
         <v>0.50986123085021973</v>
       </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q225" s="68">
+        <f t="shared" si="8"/>
+        <v>282.42284019229288</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="30" t="s">
         <v>227</v>
       </c>
@@ -13151,7 +14062,7 @@
         <v>0.74468040466308594</v>
       </c>
       <c r="I226" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.728813559322035</v>
       </c>
       <c r="J226" s="31"/>
@@ -13173,8 +14084,12 @@
       <c r="P226" s="26">
         <v>0.50863885879516602</v>
       </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q226" s="68">
+        <f t="shared" si="8"/>
+        <v>374.97632121266878</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="30" t="s">
         <v>228</v>
       </c>
@@ -13200,7 +14115,7 @@
         <v>0.83880901336669922</v>
       </c>
       <c r="I227" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.372881355932204</v>
       </c>
       <c r="J227" s="31"/>
@@ -13222,8 +14137,12 @@
       <c r="P227" s="26">
         <v>0.49515247344970698</v>
       </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q227" s="68">
+        <f t="shared" si="8"/>
+        <v>347.30466532527203</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="30" t="s">
         <v>229</v>
       </c>
@@ -13249,7 +14168,7 @@
         <v>0.79155921936035156</v>
       </c>
       <c r="I228" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17.627118644067796</v>
       </c>
       <c r="J228" s="31"/>
@@ -13271,8 +14190,12 @@
       <c r="P228" s="26">
         <v>0.53556585311889648</v>
       </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q228" s="68">
+        <f t="shared" si="8"/>
+        <v>392.84631626778872</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="30" t="s">
         <v>230</v>
       </c>
@@ -13298,7 +14221,7 @@
         <v>0.89050912857055664</v>
       </c>
       <c r="I229" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.16949152542373</v>
       </c>
       <c r="J229" s="31"/>
@@ -13320,8 +14243,12 @@
       <c r="P229" s="26">
         <v>0.54347920417785645</v>
       </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q229" s="68">
+        <f t="shared" si="8"/>
+        <v>354.09712438126269</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="30" t="s">
         <v>231</v>
       </c>
@@ -13347,7 +14274,7 @@
         <v>0.81632328033447266</v>
       </c>
       <c r="I230" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13.898305084745763</v>
       </c>
       <c r="J230" s="31"/>
@@ -13369,8 +14296,12 @@
       <c r="P230" s="26">
         <v>0.53456950187683105</v>
       </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q230" s="68">
+        <f t="shared" si="8"/>
+        <v>366.33684156962238</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="30" t="s">
         <v>232</v>
       </c>
@@ -13396,7 +14327,7 @@
         <v>0.7081301212310791</v>
       </c>
       <c r="I231" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.728813559322035</v>
       </c>
       <c r="J231" s="31"/>
@@ -13418,8 +14349,12 @@
       <c r="P231" s="26">
         <v>0.61729311943054199</v>
       </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q231" s="68">
+        <f t="shared" si="8"/>
+        <v>399.62897822235749</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="30" t="s">
         <v>233</v>
       </c>
@@ -13445,7 +14380,7 @@
         <v>0.8001399040222168</v>
       </c>
       <c r="I232" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11.349693251533742</v>
       </c>
       <c r="J232" s="31"/>
@@ -13467,8 +14402,12 @@
       <c r="P232" s="26">
         <v>0.57180023193359375</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q232" s="68">
+        <f t="shared" si="8"/>
+        <v>456.01902348756312</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="30" t="s">
         <v>234</v>
       </c>
@@ -13494,7 +14433,7 @@
         <v>0.6981041431427002</v>
       </c>
       <c r="I233" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.717791411042946</v>
       </c>
       <c r="J233" s="31"/>
@@ -13516,8 +14455,12 @@
       <c r="P233" s="26">
         <v>0.53874325752258301</v>
       </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q233" s="68">
+        <f t="shared" si="8"/>
+        <v>405.03781323890729</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="30" t="s">
         <v>235</v>
       </c>
@@ -13543,7 +14486,7 @@
         <v>0.66721463203430176</v>
       </c>
       <c r="I234" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.398773006134967</v>
       </c>
       <c r="J234" s="31"/>
@@ -13565,8 +14508,12 @@
       <c r="P234" s="26">
         <v>0.61931228637695313</v>
       </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q234" s="68">
+        <f t="shared" si="8"/>
+        <v>540.8456899273466</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="30" t="s">
         <v>236</v>
       </c>
@@ -13592,7 +14539,7 @@
         <v>0.74926161766052246</v>
       </c>
       <c r="I235" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12.116564417177914</v>
       </c>
       <c r="J235" s="31"/>
@@ -13614,8 +14561,12 @@
       <c r="P235" s="26">
         <v>0.54454231262207031</v>
       </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q235" s="68">
+        <f t="shared" si="8"/>
+        <v>404.50662060644402</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="30" t="s">
         <v>237</v>
       </c>
@@ -13641,7 +14592,7 @@
         <v>0.71125221252441406</v>
       </c>
       <c r="I236" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>21.012269938650306</v>
       </c>
       <c r="J236" s="31"/>
@@ -13663,8 +14614,12 @@
       <c r="P236" s="26">
         <v>0.58532881736755371</v>
       </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q236" s="68">
+        <f t="shared" si="8"/>
+        <v>430.54064714771761</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="30" t="s">
         <v>238</v>
       </c>
@@ -13690,7 +14645,7 @@
         <v>0.62432956695556641</v>
       </c>
       <c r="I237" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.085889570552148</v>
       </c>
       <c r="J237" s="31"/>
@@ -13712,8 +14667,12 @@
       <c r="P237" s="26">
         <v>0.54952883720397949</v>
       </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q237" s="68">
+        <f t="shared" si="8"/>
+        <v>404.30919896418851</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="30" t="s">
         <v>239</v>
       </c>
@@ -13739,7 +14698,7 @@
         <v>0.67320752143859863</v>
       </c>
       <c r="I238" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.411042944785276</v>
       </c>
       <c r="J238" s="31"/>
@@ -13761,8 +14720,12 @@
       <c r="P238" s="26">
         <v>0.58715558052062988</v>
       </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q238" s="68">
+        <f t="shared" si="8"/>
+        <v>433.4401162813387</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="30" t="s">
         <v>240</v>
       </c>
@@ -13788,7 +14751,7 @@
         <v>0.69338536262512207</v>
       </c>
       <c r="I239" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>21.012269938650306</v>
       </c>
       <c r="J239" s="31"/>
@@ -13810,8 +14773,12 @@
       <c r="P239" s="26">
         <v>0.56800627708435059</v>
       </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q239" s="68">
+        <f t="shared" si="8"/>
+        <v>407.80815385836888</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="30" t="s">
         <v>241</v>
       </c>
@@ -13837,7 +14804,7 @@
         <v>0.84848475456237793</v>
       </c>
       <c r="I240" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>21.625766871165645</v>
       </c>
       <c r="J240" s="31"/>
@@ -13859,8 +14826,12 @@
       <c r="P240" s="26">
         <v>0.62744569778442383</v>
       </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q240" s="68">
+        <f t="shared" si="8"/>
+        <v>416.40036639340468</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="30" t="s">
         <v>242</v>
       </c>
@@ -13886,7 +14857,7 @@
         <v>0.8143460750579834</v>
       </c>
       <c r="I241" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12.96551724137931</v>
       </c>
       <c r="J241" s="31"/>
@@ -13908,8 +14879,12 @@
       <c r="P241" s="26">
         <v>0.59646725654602051</v>
       </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q241" s="68">
+        <f t="shared" si="8"/>
+        <v>565.52349453515626</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="30" t="s">
         <v>243</v>
       </c>
@@ -13935,7 +14910,7 @@
         <v>0.70929455757141113</v>
       </c>
       <c r="I242" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.620689655172416</v>
       </c>
       <c r="J242" s="31"/>
@@ -13957,8 +14932,12 @@
       <c r="P242" s="26">
         <v>0.60039353370666504</v>
       </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q242" s="68">
+        <f t="shared" si="8"/>
+        <v>472.23586565922881</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="30" t="s">
         <v>244</v>
       </c>
@@ -13984,7 +14963,7 @@
         <v>0.75803685188293457</v>
       </c>
       <c r="I243" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.551724137931036</v>
       </c>
       <c r="J243" s="31"/>
@@ -14006,8 +14985,12 @@
       <c r="P243" s="26">
         <v>0.610504150390625</v>
       </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q243" s="68">
+        <f t="shared" si="8"/>
+        <v>444.32079114321971</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="30" t="s">
         <v>245</v>
       </c>
@@ -14033,7 +15016,7 @@
         <v>0.77398252487182617</v>
       </c>
       <c r="I244" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14.068965517241381</v>
       </c>
       <c r="J244" s="31"/>
@@ -14055,8 +15038,12 @@
       <c r="P244" s="26">
         <v>0.62859249114990234</v>
       </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q244" s="68">
+        <f t="shared" si="8"/>
+        <v>503.91946286145799</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="30" t="s">
         <v>246</v>
       </c>
@@ -14082,7 +15069,7 @@
         <v>0.68915724754333496</v>
       </c>
       <c r="I245" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15.586206896551724</v>
       </c>
       <c r="J245" s="31"/>
@@ -14104,8 +15091,12 @@
       <c r="P245" s="26">
         <v>0.61886739730834961</v>
       </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q245" s="68">
+        <f t="shared" si="8"/>
+        <v>488.59992010568089</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="30" t="s">
         <v>247</v>
       </c>
@@ -14131,7 +15122,7 @@
         <v>0.77852129936218262</v>
       </c>
       <c r="I246" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19.586206896551726</v>
       </c>
       <c r="J246" s="31"/>
@@ -14153,8 +15144,12 @@
       <c r="P246" s="26">
         <v>0.60394167900085449</v>
       </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q246" s="68">
+        <f t="shared" si="8"/>
+        <v>465.32970589708941</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="30" t="s">
         <v>248</v>
       </c>
@@ -14180,7 +15175,7 @@
         <v>0.8360443115234375</v>
       </c>
       <c r="I247" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12.137931034482758</v>
       </c>
       <c r="J247" s="31"/>
@@ -14202,8 +15197,12 @@
       <c r="P247" s="26">
         <v>0.63649272918701172</v>
       </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q247" s="68">
+        <f t="shared" si="8"/>
+        <v>475.1871310540925</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="30" t="s">
         <v>249</v>
       </c>
@@ -14229,7 +15228,7 @@
         <v>0.70663738250732422</v>
       </c>
       <c r="I248" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.551724137931036</v>
       </c>
       <c r="J248" s="31"/>
@@ -14251,8 +15250,12 @@
       <c r="P248" s="26">
         <v>0.62011289596557617</v>
       </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q248" s="68">
+        <f t="shared" si="8"/>
+        <v>591.78310320711068</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="30" t="s">
         <v>250</v>
       </c>
@@ -14278,7 +15281,7 @@
         <v>0.75262236595153809</v>
       </c>
       <c r="I249" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="J249" s="31"/>
@@ -14300,8 +15303,12 @@
       <c r="P249" s="26">
         <v>0.67810440063476563</v>
       </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q249" s="68">
+        <f t="shared" si="8"/>
+        <v>444.29853950855198</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="30" t="s">
         <v>251</v>
       </c>
@@ -14327,7 +15334,7 @@
         <v>0.72321319580078125</v>
       </c>
       <c r="I250" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15.601023017902813</v>
       </c>
       <c r="J250" s="31"/>
@@ -14349,8 +15356,12 @@
       <c r="P250" s="26">
         <v>0.64997768402099609</v>
       </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q250" s="68">
+        <f t="shared" si="8"/>
+        <v>567.12515628806671</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="30" t="s">
         <v>252</v>
       </c>
@@ -14376,7 +15387,7 @@
         <v>0.74883413314819336</v>
       </c>
       <c r="I251" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.797953964194374</v>
       </c>
       <c r="J251" s="31"/>
@@ -14398,8 +15409,12 @@
       <c r="P251" s="26">
         <v>0.66978168487548828</v>
       </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q251" s="68">
+        <f t="shared" si="8"/>
+        <v>520.64636080102662</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="30" t="s">
         <v>253</v>
       </c>
@@ -14425,7 +15440,7 @@
         <v>0.77457284927368164</v>
       </c>
       <c r="I252" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.797953964194374</v>
       </c>
       <c r="J252" s="31"/>
@@ -14447,8 +15462,12 @@
       <c r="P252" s="26">
         <v>0.73906183242797852</v>
       </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q252" s="68">
+        <f t="shared" si="8"/>
+        <v>581.60889066360528</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="30" t="s">
         <v>254</v>
       </c>
@@ -14474,7 +15493,7 @@
         <v>0.73720431327819824</v>
       </c>
       <c r="I253" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.368286445012789</v>
       </c>
       <c r="J253" s="31"/>
@@ -14496,8 +15515,12 @@
       <c r="P253" s="26">
         <v>0.71512579917907715</v>
       </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q253" s="68">
+        <f t="shared" si="8"/>
+        <v>576.98235484322538</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="30" t="s">
         <v>255</v>
       </c>
@@ -14523,7 +15546,7 @@
         <v>0.81454348564147949</v>
       </c>
       <c r="I254" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.496163682864452</v>
       </c>
       <c r="J254" s="31"/>
@@ -14545,8 +15568,12 @@
       <c r="P254" s="26">
         <v>0.75604915618896484</v>
       </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q254" s="68">
+        <f t="shared" si="8"/>
+        <v>575.48793555578891</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="30" t="s">
         <v>256</v>
       </c>
@@ -14572,7 +15599,7 @@
         <v>0.74422168731689453</v>
       </c>
       <c r="I255" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17.647058823529413</v>
       </c>
       <c r="J255" s="31"/>
@@ -14594,8 +15621,12 @@
       <c r="P255" s="26">
         <v>0.76965546607971191</v>
       </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q255" s="68">
+        <f t="shared" si="8"/>
+        <v>582.49477672709384</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" s="30" t="s">
         <v>257</v>
       </c>
@@ -14621,7 +15652,7 @@
         <v>0.8501427173614502</v>
       </c>
       <c r="I256" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15.856777493606138</v>
       </c>
       <c r="J256" s="31"/>
@@ -14643,8 +15674,12 @@
       <c r="P256" s="26">
         <v>0.80702304840087891</v>
       </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q256" s="68">
+        <f t="shared" si="8"/>
+        <v>569.81052956515589</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" s="30" t="s">
         <v>258</v>
       </c>
@@ -14670,7 +15705,7 @@
         <v>0.80160737037658691</v>
       </c>
       <c r="I257" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.542199488491047</v>
       </c>
       <c r="J257" s="31"/>
@@ -14692,8 +15727,12 @@
       <c r="P257" s="26">
         <v>0.82159805297851563</v>
       </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q257" s="68">
+        <f t="shared" si="8"/>
+        <v>532.38760624084068</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" s="30" t="s">
         <v>259</v>
       </c>
@@ -14719,7 +15758,7 @@
         <v>0.86422467231750488</v>
       </c>
       <c r="I258" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14.322250639386189</v>
       </c>
       <c r="J258" s="31"/>
@@ -14741,8 +15780,12 @@
       <c r="P258" s="26">
         <v>0.8034968376159668</v>
       </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q258" s="68">
+        <f t="shared" si="8"/>
+        <v>593.6016637340872</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="30" t="s">
         <v>260</v>
       </c>
@@ -14768,7 +15811,7 @@
         <v>0.81348371505737305</v>
       </c>
       <c r="I259" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15.728900255754475</v>
       </c>
       <c r="J259" s="31"/>
@@ -14790,8 +15833,12 @@
       <c r="P259" s="26">
         <v>0.79640841484069824</v>
       </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q259" s="68">
+        <f t="shared" si="8"/>
+        <v>516.69905729114953</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" s="30" t="s">
         <v>261</v>
       </c>
@@ -14817,7 +15864,7 @@
         <v>0.75947237014770508</v>
       </c>
       <c r="I260" s="14">
-        <f t="shared" ref="I260:I323" si="4">((B260-MAX(C260,E260,G260))/B260)*100</f>
+        <f t="shared" ref="I260:I323" si="9">((B260-MAX(C260,E260,G260))/B260)*100</f>
         <v>12.574850299401197</v>
       </c>
       <c r="J260" s="31"/>
@@ -14839,8 +15886,12 @@
       <c r="P260" s="26">
         <v>0.88131546974182129</v>
       </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q260" s="68">
+        <f t="shared" si="8"/>
+        <v>664.22478912034671</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" s="30" t="s">
         <v>262</v>
       </c>
@@ -14866,7 +15917,7 @@
         <v>0.8238835334777832</v>
       </c>
       <c r="I261" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>13.532934131736527</v>
       </c>
       <c r="J261" s="31"/>
@@ -14888,8 +15939,12 @@
       <c r="P261" s="26">
         <v>0.79362678527832031</v>
       </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q261" s="68">
+        <f t="shared" si="8"/>
+        <v>650.92454861875353</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" s="30" t="s">
         <v>263</v>
       </c>
@@ -14915,7 +15970,7 @@
         <v>0.75768828392028809</v>
       </c>
       <c r="I262" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>17.485029940119762</v>
       </c>
       <c r="J262" s="31"/>
@@ -14937,8 +15992,12 @@
       <c r="P262" s="26">
         <v>0.72828388214111328</v>
       </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q262" s="68">
+        <f t="shared" si="8"/>
+        <v>627.15403616285323</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="30" t="s">
         <v>264</v>
       </c>
@@ -14964,7 +16023,7 @@
         <v>0.77748346328735352</v>
       </c>
       <c r="I263" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>13.41317365269461</v>
       </c>
       <c r="J263" s="31"/>
@@ -14986,8 +16045,12 @@
       <c r="P263" s="26">
         <v>0.89553308486938477</v>
       </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q263" s="68">
+        <f t="shared" si="8"/>
+        <v>645.55251061455795</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" s="30" t="s">
         <v>265</v>
       </c>
@@ -15013,7 +16076,7 @@
         <v>0.81410121917724609</v>
       </c>
       <c r="I264" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.976047904191617</v>
       </c>
       <c r="J264" s="31"/>
@@ -15035,8 +16098,12 @@
       <c r="P264" s="26">
         <v>0.7898862361907959</v>
       </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q264" s="68">
+        <f t="shared" si="8"/>
+        <v>629.46902237602092</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" s="30" t="s">
         <v>266</v>
       </c>
@@ -15062,7 +16129,7 @@
         <v>0.86499881744384766</v>
       </c>
       <c r="I265" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14.610778443113773</v>
       </c>
       <c r="J265" s="31"/>
@@ -15084,8 +16151,12 @@
       <c r="P265" s="26">
         <v>0.76859450340270996</v>
       </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q265" s="68">
+        <f t="shared" si="8"/>
+        <v>599.04691587354921</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" s="30" t="s">
         <v>267</v>
       </c>
@@ -15111,7 +16182,7 @@
         <v>0.90492892265319824</v>
       </c>
       <c r="I266" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10.778443113772456</v>
       </c>
       <c r="J266" s="31"/>
@@ -15133,8 +16204,12 @@
       <c r="P266" s="26">
         <v>0.82079839706420898</v>
       </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q266" s="68">
+        <f t="shared" si="8"/>
+        <v>655.69021339507958</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="30" t="s">
         <v>268</v>
       </c>
@@ -15160,7 +16235,7 @@
         <v>0.91831064224243164</v>
       </c>
       <c r="I267" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>8.8622754491017961</v>
       </c>
       <c r="J267" s="31"/>
@@ -15182,8 +16257,12 @@
       <c r="P267" s="26">
         <v>0.75821638107299805</v>
       </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q267" s="68">
+        <f t="shared" si="8"/>
+        <v>635.27496025536323</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="30" t="s">
         <v>269</v>
       </c>
@@ -15209,7 +16288,7 @@
         <v>0.87166953086853027</v>
       </c>
       <c r="I268" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>13.77245508982036</v>
       </c>
       <c r="J268" s="31"/>
@@ -15231,8 +16310,12 @@
       <c r="P268" s="26">
         <v>0.78517484664916992</v>
       </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q268" s="68">
+        <f t="shared" si="8"/>
+        <v>595.58639539217143</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="30" t="s">
         <v>270</v>
       </c>
@@ -15258,7 +16341,7 @@
         <v>0.91357088088989258</v>
       </c>
       <c r="I269" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.976047904191617</v>
       </c>
       <c r="J269" s="31"/>
@@ -15280,8 +16363,12 @@
       <c r="P269" s="26">
         <v>0.80192375183105469</v>
       </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q269" s="68">
+        <f t="shared" si="8"/>
+        <v>559.78714110309443</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" s="30" t="s">
         <v>271</v>
       </c>
@@ -15307,7 +16394,7 @@
         <v>0.86112856864929199</v>
       </c>
       <c r="I270" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.297539149888143</v>
       </c>
       <c r="J270" s="31"/>
@@ -15329,8 +16416,12 @@
       <c r="P270" s="26">
         <v>0.7526392936706543</v>
       </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q270" s="68">
+        <f t="shared" si="8"/>
+        <v>704.07547610057213</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" s="30" t="s">
         <v>272</v>
       </c>
@@ -15356,7 +16447,7 @@
         <v>0.79886317253112793</v>
       </c>
       <c r="I271" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>15.212527964205815</v>
       </c>
       <c r="J271" s="31"/>
@@ -15378,8 +16469,12 @@
       <c r="P271" s="26">
         <v>0.73233819007873535</v>
       </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q271" s="68">
+        <f t="shared" si="8"/>
+        <v>689.26570407145823</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" s="30" t="s">
         <v>273</v>
       </c>
@@ -15405,7 +16500,7 @@
         <v>0.83406805992126465</v>
       </c>
       <c r="I272" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>17.002237136465325</v>
       </c>
       <c r="J272" s="31"/>
@@ -15427,8 +16522,12 @@
       <c r="P272" s="26">
         <v>0.89550209045410156</v>
       </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q272" s="68">
+        <f t="shared" si="8"/>
+        <v>653.84219424919434</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" s="30" t="s">
         <v>274</v>
       </c>
@@ -15454,7 +16553,7 @@
         <v>0.85674071311950684</v>
       </c>
       <c r="I273" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>13.646532438478747</v>
       </c>
       <c r="J273" s="31"/>
@@ -15476,8 +16575,12 @@
       <c r="P273" s="26">
         <v>0.88733553886413574</v>
       </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q273" s="68">
+        <f t="shared" si="8"/>
+        <v>666.0079977303709</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" s="30" t="s">
         <v>275</v>
       </c>
@@ -15503,7 +16606,7 @@
         <v>0.8713226318359375</v>
       </c>
       <c r="I274" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>15.659955257270694</v>
       </c>
       <c r="J274" s="31"/>
@@ -15525,8 +16628,12 @@
       <c r="P274" s="26">
         <v>0.82180118560791016</v>
       </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q274" s="68">
+        <f t="shared" si="8"/>
+        <v>705.08309532458748</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" s="30" t="s">
         <v>276</v>
       </c>
@@ -15552,7 +16659,7 @@
         <v>0.85582351684570313</v>
       </c>
       <c r="I275" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>13.758389261744966</v>
       </c>
       <c r="J275" s="31"/>
@@ -15574,8 +16681,12 @@
       <c r="P275" s="26">
         <v>0.8473820686340332</v>
       </c>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q275" s="68">
+        <f t="shared" si="8"/>
+        <v>688.64100747797215</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" s="30" t="s">
         <v>277</v>
       </c>
@@ -15601,7 +16712,7 @@
         <v>0.92396378517150879</v>
       </c>
       <c r="I276" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14.205816554809845</v>
       </c>
       <c r="J276" s="31"/>
@@ -15623,8 +16734,12 @@
       <c r="P276" s="26">
         <v>0.90691304206848145</v>
       </c>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q276" s="68">
+        <f t="shared" si="8"/>
+        <v>698.19027836007785</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" s="30" t="s">
         <v>278</v>
       </c>
@@ -15650,7 +16765,7 @@
         <v>0.93469667434692383</v>
       </c>
       <c r="I277" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>15.771812080536913</v>
       </c>
       <c r="J277" s="31"/>
@@ -15672,8 +16787,12 @@
       <c r="P277" s="26">
         <v>0.88940668106079102</v>
       </c>
-    </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q277" s="68">
+        <f t="shared" si="8"/>
+        <v>665.31272091029712</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" s="30" t="s">
         <v>279</v>
       </c>
@@ -15699,7 +16818,7 @@
         <v>0.91760468482971191</v>
       </c>
       <c r="I278" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>17.114093959731544</v>
       </c>
       <c r="J278" s="31"/>
@@ -15721,8 +16840,12 @@
       <c r="P278" s="26">
         <v>0.84390139579772949</v>
       </c>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q278" s="68">
+        <f t="shared" si="8"/>
+        <v>652.7394805791655</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" s="30" t="s">
         <v>280</v>
       </c>
@@ -15748,7 +16871,7 @@
         <v>0.97423958778381348</v>
       </c>
       <c r="I279" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14.093959731543624</v>
       </c>
       <c r="J279" s="31"/>
@@ -15770,8 +16893,12 @@
       <c r="P279" s="26">
         <v>0.8612205982208252</v>
       </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q279" s="68">
+        <f t="shared" si="8"/>
+        <v>661.64235468398351</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" s="30" t="s">
         <v>281</v>
       </c>
@@ -15797,7 +16924,7 @@
         <v>0.92848372459411621</v>
       </c>
       <c r="I280" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>12.02928870292887</v>
       </c>
       <c r="J280" s="31"/>
@@ -15819,8 +16946,12 @@
       <c r="P280" s="26">
         <v>0.77555942535400391</v>
       </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q280" s="68">
+        <f t="shared" si="8"/>
+        <v>739.0219469712265</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" s="30" t="s">
         <v>282</v>
       </c>
@@ -15846,7 +16977,7 @@
         <v>0.89764976501464844</v>
       </c>
       <c r="I281" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>13.807531380753138</v>
       </c>
       <c r="J281" s="31"/>
@@ -15868,8 +16999,12 @@
       <c r="P281" s="26">
         <v>0.76347756385803223</v>
       </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q281" s="68">
+        <f t="shared" si="8"/>
+        <v>736.11852921742968</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" s="30" t="s">
         <v>283</v>
       </c>
@@ -15895,7 +17030,7 @@
         <v>0.87968993186950684</v>
       </c>
       <c r="I282" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>16.94560669456067</v>
       </c>
       <c r="J282" s="31"/>
@@ -15917,8 +17052,12 @@
       <c r="P282" s="26">
         <v>0.90418648719787598</v>
       </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q282" s="68">
+        <f t="shared" si="8"/>
+        <v>701.48503632419363</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" s="30" t="s">
         <v>284</v>
       </c>
@@ -15944,7 +17083,7 @@
         <v>0.88722896575927734</v>
       </c>
       <c r="I283" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>12.97071129707113</v>
       </c>
       <c r="J283" s="31"/>
@@ -15966,8 +17105,12 @@
       <c r="P283" s="26">
         <v>0.80449509620666504</v>
       </c>
-    </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q283" s="68">
+        <f t="shared" si="8"/>
+        <v>746.00954572417845</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" s="30" t="s">
         <v>285</v>
       </c>
@@ -15993,7 +17136,7 @@
         <v>0.89138197898864746</v>
       </c>
       <c r="I284" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>16.84100418410042</v>
       </c>
       <c r="J284" s="31"/>
@@ -16015,8 +17158,12 @@
       <c r="P284" s="26">
         <v>0.78340625762939453</v>
       </c>
-    </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q284" s="68">
+        <f t="shared" si="8"/>
+        <v>724.77233080833878</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="30" t="s">
         <v>286</v>
       </c>
@@ -16042,7 +17189,7 @@
         <v>0.90322208404541016</v>
       </c>
       <c r="I285" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>16.84100418410042</v>
       </c>
       <c r="J285" s="31"/>
@@ -16064,8 +17211,12 @@
       <c r="P285" s="26">
         <v>0.8077237606048584</v>
       </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q285" s="68">
+        <f t="shared" si="8"/>
+        <v>694.39103406766981</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" s="30" t="s">
         <v>287</v>
       </c>
@@ -16091,7 +17242,7 @@
         <v>0.95510363578796387</v>
       </c>
       <c r="I286" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>12.552301255230125</v>
       </c>
       <c r="J286" s="31"/>
@@ -16113,8 +17264,12 @@
       <c r="P286" s="26">
         <v>0.84780669212341309</v>
       </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q286" s="68">
+        <f t="shared" si="8"/>
+        <v>730.70390609214496</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" s="30" t="s">
         <v>288</v>
       </c>
@@ -16140,7 +17295,7 @@
         <v>0.98598384857177734</v>
       </c>
       <c r="I287" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>16.94560669456067</v>
       </c>
       <c r="J287" s="31"/>
@@ -16162,8 +17317,12 @@
       <c r="P287" s="26">
         <v>0.87098097801208496</v>
       </c>
-    </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q287" s="68">
+        <f t="shared" si="8"/>
+        <v>719.53516425245334</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" s="30" t="s">
         <v>289</v>
       </c>
@@ -16189,7 +17348,7 @@
         <v>1.053619861602783</v>
       </c>
       <c r="I288" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14.644351464435147</v>
       </c>
       <c r="J288" s="31"/>
@@ -16211,8 +17370,12 @@
       <c r="P288" s="26">
         <v>0.86370587348937988</v>
       </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q288" s="68">
+        <f t="shared" ref="Q288:Q351" si="10">MAX(K288,M288,O288)</f>
+        <v>704.81791851333719</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" s="30" t="s">
         <v>290</v>
       </c>
@@ -16238,7 +17401,7 @@
         <v>0.97867465019226074</v>
       </c>
       <c r="I289" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>16.527196652719663</v>
       </c>
       <c r="J289" s="31"/>
@@ -16260,8 +17423,12 @@
       <c r="P289" s="26">
         <v>0.89628458023071289</v>
       </c>
-    </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q289" s="68">
+        <f t="shared" si="10"/>
+        <v>717.32482648663506</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" s="30" t="s">
         <v>291</v>
       </c>
@@ -16287,7 +17454,7 @@
         <v>1.032203674316406</v>
       </c>
       <c r="I290" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14.412635735439288</v>
       </c>
       <c r="J290" s="31"/>
@@ -16309,8 +17476,12 @@
       <c r="P290" s="26">
         <v>0.86672854423522949</v>
       </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q290" s="68">
+        <f t="shared" si="10"/>
+        <v>780.84250098993368</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" s="30" t="s">
         <v>292</v>
       </c>
@@ -16336,7 +17507,7 @@
         <v>1.0882623195648189</v>
       </c>
       <c r="I291" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14.708785784797632</v>
       </c>
       <c r="J291" s="31"/>
@@ -16358,8 +17529,12 @@
       <c r="P291" s="26">
         <v>0.81244564056396484</v>
       </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q291" s="68">
+        <f t="shared" si="10"/>
+        <v>761.83090141486275</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" s="30" t="s">
         <v>293</v>
       </c>
@@ -16385,7 +17560,7 @@
         <v>0.97996616363525391</v>
       </c>
       <c r="I292" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>15.695952615992104</v>
       </c>
       <c r="J292" s="31"/>
@@ -16407,8 +17582,12 @@
       <c r="P292" s="26">
         <v>0.82955145835876465</v>
       </c>
-    </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q292" s="68">
+        <f t="shared" si="10"/>
+        <v>776.34321851526977</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" s="30" t="s">
         <v>294</v>
       </c>
@@ -16434,7 +17613,7 @@
         <v>1.012474060058594</v>
       </c>
       <c r="I293" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>15.399802566633761</v>
       </c>
       <c r="J293" s="31"/>
@@ -16456,8 +17635,12 @@
       <c r="P293" s="26">
         <v>0.84527945518493652</v>
       </c>
-    </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q293" s="68">
+        <f t="shared" si="10"/>
+        <v>760.34902697512928</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" s="30" t="s">
         <v>295</v>
       </c>
@@ -16483,7 +17666,7 @@
         <v>0.99469208717346191</v>
       </c>
       <c r="I294" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>13.820335636722605</v>
       </c>
       <c r="J294" s="31"/>
@@ -16505,8 +17688,12 @@
       <c r="P294" s="26">
         <v>0.82395386695861816</v>
       </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q294" s="68">
+        <f t="shared" si="10"/>
+        <v>756.00241296200056</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" s="30" t="s">
         <v>296</v>
       </c>
@@ -16532,7 +17719,7 @@
         <v>1.4715044498443599</v>
       </c>
       <c r="I295" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>15.893385982230997</v>
       </c>
       <c r="J295" s="31"/>
@@ -16554,8 +17741,12 @@
       <c r="P295" s="26">
         <v>0.83725690841674805</v>
       </c>
-    </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q295" s="68">
+        <f t="shared" si="10"/>
+        <v>743.46694328247179</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" s="30" t="s">
         <v>297</v>
       </c>
@@ -16581,7 +17772,7 @@
         <v>1.750560998916626</v>
       </c>
       <c r="I296" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.154985192497533</v>
       </c>
       <c r="J296" s="31"/>
@@ -16603,8 +17794,12 @@
       <c r="P296" s="26">
         <v>0.89684438705444336</v>
       </c>
-    </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q296" s="68">
+        <f t="shared" si="10"/>
+        <v>786.84824558218565</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" s="30" t="s">
         <v>298</v>
       </c>
@@ -16630,7 +17825,7 @@
         <v>1.37785267829895</v>
       </c>
       <c r="I297" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14.610069101678183</v>
       </c>
       <c r="J297" s="31"/>
@@ -16652,8 +17847,12 @@
       <c r="P297" s="26">
         <v>0.90459609031677246</v>
       </c>
-    </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q297" s="68">
+        <f t="shared" si="10"/>
+        <v>793.03950554894345</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" s="30" t="s">
         <v>299</v>
       </c>
@@ -16679,7 +17878,7 @@
         <v>1.1332025527954099</v>
       </c>
       <c r="I298" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>12.142152023692004</v>
       </c>
       <c r="J298" s="31"/>
@@ -16701,8 +17900,12 @@
       <c r="P298" s="26">
         <v>0.90171718597412109</v>
       </c>
-    </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q298" s="68">
+        <f t="shared" si="10"/>
+        <v>748.47005916730325</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" s="30" t="s">
         <v>300</v>
       </c>
@@ -16728,7 +17931,7 @@
         <v>1.070074319839478</v>
       </c>
       <c r="I299" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>15.597235932872655</v>
       </c>
       <c r="J299" s="31"/>
@@ -16750,8 +17953,12 @@
       <c r="P299" s="26">
         <v>0.90860152244567871</v>
       </c>
-    </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q299" s="68">
+        <f t="shared" si="10"/>
+        <v>726.60827830354765</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" s="30" t="s">
         <v>301</v>
       </c>
@@ -16777,7 +17984,7 @@
         <v>1.324221134185791</v>
       </c>
       <c r="I300" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14.610069101678183</v>
       </c>
       <c r="J300" s="31"/>
@@ -16799,8 +18006,12 @@
       <c r="P300" s="26">
         <v>0.95835208892822266</v>
       </c>
-    </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q300" s="68">
+        <f t="shared" si="10"/>
+        <v>705.72562550564999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" s="30" t="s">
         <v>302</v>
       </c>
@@ -16826,7 +18037,7 @@
         <v>1.1790978908538821</v>
       </c>
       <c r="I301" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>9.4607379375591307</v>
       </c>
       <c r="J301" s="31"/>
@@ -16848,8 +18059,12 @@
       <c r="P301" s="26">
         <v>0.86815214157104492</v>
       </c>
-    </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q301" s="68">
+        <f t="shared" si="10"/>
+        <v>831.54622344668758</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" s="30" t="s">
         <v>303</v>
       </c>
@@ -16875,7 +18090,7 @@
         <v>1.2457671165466311</v>
       </c>
       <c r="I302" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>13.434247871333966</v>
       </c>
       <c r="J302" s="31"/>
@@ -16897,8 +18112,12 @@
       <c r="P302" s="26">
         <v>0.90111923217773438</v>
       </c>
-    </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q302" s="68">
+        <f t="shared" si="10"/>
+        <v>821.1346704949699</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" s="30" t="s">
         <v>304</v>
       </c>
@@ -16924,7 +18143,7 @@
         <v>1.3485889434814451</v>
       </c>
       <c r="I303" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>15.421002838221382</v>
       </c>
       <c r="J303" s="31"/>
@@ -16946,8 +18165,12 @@
       <c r="P303" s="26">
         <v>0.88428759574890137</v>
       </c>
-    </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q303" s="68">
+        <f t="shared" si="10"/>
+        <v>783.68236313159605</v>
+      </c>
+    </row>
+    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" s="30" t="s">
         <v>305</v>
       </c>
@@ -16973,7 +18196,7 @@
         <v>1.375094890594482</v>
       </c>
       <c r="I304" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.258278145695364</v>
       </c>
       <c r="J304" s="31"/>
@@ -16995,8 +18218,12 @@
       <c r="P304" s="26">
         <v>0.89427971839904785</v>
       </c>
-    </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q304" s="68">
+        <f t="shared" si="10"/>
+        <v>828.99858472906078</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" s="30" t="s">
         <v>306</v>
       </c>
@@ -17022,7 +18249,7 @@
         <v>1.344546318054199</v>
       </c>
       <c r="I305" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>13.245033112582782</v>
       </c>
       <c r="J305" s="31"/>
@@ -17044,8 +18271,12 @@
       <c r="P305" s="26">
         <v>0.89025235176086426</v>
       </c>
-    </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q305" s="68">
+        <f t="shared" si="10"/>
+        <v>844.9072329141685</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" s="30" t="s">
         <v>307</v>
       </c>
@@ -17071,7 +18302,7 @@
         <v>1.601767301559448</v>
       </c>
       <c r="I306" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>13.245033112582782</v>
       </c>
       <c r="J306" s="31"/>
@@ -17093,8 +18324,12 @@
       <c r="P306" s="26">
         <v>0.91246509552001953</v>
       </c>
-    </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q306" s="68">
+        <f t="shared" si="10"/>
+        <v>847.015239046121</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" s="30" t="s">
         <v>308</v>
       </c>
@@ -17120,7 +18355,7 @@
         <v>1.500943660736084</v>
       </c>
       <c r="I307" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>5.8656575212866606</v>
       </c>
       <c r="J307" s="31"/>
@@ -17142,8 +18377,12 @@
       <c r="P307" s="26">
         <v>0.96274471282958984</v>
       </c>
-    </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q307" s="68">
+        <f t="shared" si="10"/>
+        <v>841.6531562610669</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" s="30" t="s">
         <v>309</v>
       </c>
@@ -17169,7 +18408,7 @@
         <v>1.7988536357879641</v>
       </c>
       <c r="I308" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>13.623462630085148</v>
       </c>
       <c r="J308" s="31"/>
@@ -17191,8 +18430,12 @@
       <c r="P308" s="26">
         <v>0.95465302467346191</v>
       </c>
-    </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q308" s="68">
+        <f t="shared" si="10"/>
+        <v>813.13968279383664</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" s="30" t="s">
         <v>310</v>
       </c>
@@ -17218,7 +18461,7 @@
         <v>1.3594586849212651</v>
       </c>
       <c r="I309" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>13.245033112582782</v>
       </c>
       <c r="J309" s="31"/>
@@ -17240,8 +18483,12 @@
       <c r="P309" s="26">
         <v>0.97330212593078613</v>
       </c>
-    </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q309" s="68">
+        <f t="shared" si="10"/>
+        <v>774.52029156929814</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" s="30" t="s">
         <v>311</v>
       </c>
@@ -17267,7 +18514,7 @@
         <v>1.4065089225769041</v>
       </c>
       <c r="I310" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14.285714285714285</v>
       </c>
       <c r="J310" s="31"/>
@@ -17289,8 +18536,12 @@
       <c r="P310" s="26">
         <v>1.2527644634246831</v>
       </c>
-    </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q310" s="68">
+        <f t="shared" si="10"/>
+        <v>822.0895349202998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" s="30" t="s">
         <v>312</v>
       </c>
@@ -17316,7 +18567,7 @@
         <v>1.3565080165863039</v>
       </c>
       <c r="I311" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14.285714285714285</v>
       </c>
       <c r="J311" s="31"/>
@@ -17338,8 +18589,12 @@
       <c r="P311" s="26">
         <v>1.144268751144409</v>
       </c>
-    </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q311" s="68">
+        <f t="shared" si="10"/>
+        <v>804.17659601746823</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" s="30" t="s">
         <v>313</v>
       </c>
@@ -17365,7 +18620,7 @@
         <v>1.2535524368286131</v>
       </c>
       <c r="I312" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>12.657091561938957</v>
       </c>
       <c r="J312" s="31"/>
@@ -17387,8 +18642,12 @@
       <c r="P312" s="26">
         <v>0.92808747291564941</v>
       </c>
-    </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q312" s="68">
+        <f t="shared" si="10"/>
+        <v>871.41772445834022</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" s="30" t="s">
         <v>314</v>
       </c>
@@ -17414,7 +18673,7 @@
         <v>1.2912957668304439</v>
       </c>
       <c r="I313" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>13.016157989228008</v>
       </c>
       <c r="J313" s="31"/>
@@ -17436,8 +18695,12 @@
       <c r="P313" s="26">
         <v>0.8877866268157959</v>
       </c>
-    </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q313" s="68">
+        <f t="shared" si="10"/>
+        <v>909.32702300900417</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" s="30" t="s">
         <v>315</v>
       </c>
@@ -17463,7 +18726,7 @@
         <v>1.2915301322937009</v>
       </c>
       <c r="I314" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14.272890484739678</v>
       </c>
       <c r="J314" s="31"/>
@@ -17485,8 +18748,12 @@
       <c r="P314" s="26">
         <v>0.91391563415527344</v>
       </c>
-    </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q314" s="68">
+        <f t="shared" si="10"/>
+        <v>835.8820059888476</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" s="30" t="s">
         <v>316</v>
       </c>
@@ -17512,7 +18779,7 @@
         <v>1.4139564037323</v>
       </c>
       <c r="I315" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.310592459605028</v>
       </c>
       <c r="J315" s="31"/>
@@ -17534,8 +18801,12 @@
       <c r="P315" s="26">
         <v>0.92899155616760254</v>
       </c>
-    </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q315" s="68">
+        <f t="shared" si="10"/>
+        <v>878.19365746916594</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" s="30" t="s">
         <v>317</v>
       </c>
@@ -17561,7 +18832,7 @@
         <v>1.2603569030761721</v>
       </c>
       <c r="I316" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>13.734290843806104</v>
       </c>
       <c r="J316" s="31"/>
@@ -17583,8 +18854,12 @@
       <c r="P316" s="26">
         <v>0.90019631385803223</v>
       </c>
-    </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q316" s="68">
+        <f t="shared" si="10"/>
+        <v>873.63913248842198</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" s="30" t="s">
         <v>318</v>
       </c>
@@ -17610,7 +18885,7 @@
         <v>1.419488191604614</v>
       </c>
       <c r="I317" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14.991023339317774</v>
       </c>
       <c r="J317" s="31"/>
@@ -17632,8 +18907,12 @@
       <c r="P317" s="26">
         <v>0.93304705619812012</v>
       </c>
-    </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q317" s="68">
+        <f t="shared" si="10"/>
+        <v>837.86397125568817</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" s="30" t="s">
         <v>319</v>
       </c>
@@ -17659,7 +18938,7 @@
         <v>1.3874504566192629</v>
       </c>
       <c r="I318" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>13.195691202872531</v>
       </c>
       <c r="J318" s="31"/>
@@ -17681,8 +18960,12 @@
       <c r="P318" s="26">
         <v>0.99835872650146484</v>
       </c>
-    </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q318" s="68">
+        <f t="shared" si="10"/>
+        <v>866.92518459807775</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" s="30" t="s">
         <v>320</v>
       </c>
@@ -17708,7 +18991,7 @@
         <v>1.238934993743896</v>
       </c>
       <c r="I319" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10.59245960502693</v>
       </c>
       <c r="J319" s="31"/>
@@ -17730,8 +19013,12 @@
       <c r="P319" s="26">
         <v>0.99238133430480957</v>
       </c>
-    </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q319" s="68">
+        <f t="shared" si="10"/>
+        <v>902.50245986677726</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" s="30" t="s">
         <v>321</v>
       </c>
@@ -17757,7 +19044,7 @@
         <v>1.1324806213378911</v>
       </c>
       <c r="I320" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14.991023339317774</v>
       </c>
       <c r="J320" s="31"/>
@@ -17779,8 +19066,12 @@
       <c r="P320" s="26">
         <v>0.99185729026794434</v>
       </c>
-    </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q320" s="68">
+        <f t="shared" si="10"/>
+        <v>854.81067097102914</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" s="30" t="s">
         <v>322</v>
       </c>
@@ -17806,7 +19097,7 @@
         <v>1.2455427646636961</v>
       </c>
       <c r="I321" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>12.118491921005386</v>
       </c>
       <c r="J321" s="31"/>
@@ -17828,8 +19119,12 @@
       <c r="P321" s="26">
         <v>1.0294842720031741</v>
       </c>
-    </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q321" s="68">
+        <f t="shared" si="10"/>
+        <v>853.63389797727405</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" s="30" t="s">
         <v>323</v>
       </c>
@@ -17855,7 +19150,7 @@
         <v>1.3018062114715581</v>
       </c>
       <c r="I322" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14.631956912028727</v>
       </c>
       <c r="J322" s="31"/>
@@ -17877,8 +19172,12 @@
       <c r="P322" s="26">
         <v>1.0554080009460449</v>
       </c>
-    </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q322" s="68">
+        <f t="shared" si="10"/>
+        <v>813.75128910170679</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" s="30" t="s">
         <v>324</v>
       </c>
@@ -17904,7 +19203,7 @@
         <v>1.138253927230835</v>
       </c>
       <c r="I323" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>12.371134020618557</v>
       </c>
       <c r="J323" s="31"/>
@@ -17926,8 +19225,12 @@
       <c r="P323" s="26">
         <v>0.96380352973937988</v>
       </c>
-    </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q323" s="68">
+        <f t="shared" si="10"/>
+        <v>927.39337230563842</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324" s="30" t="s">
         <v>325</v>
       </c>
@@ -17953,7 +19256,7 @@
         <v>1.0845673084259031</v>
       </c>
       <c r="I324" s="14">
-        <f t="shared" ref="I324:I387" si="5">((B324-MAX(C324,E324,G324))/B324)*100</f>
+        <f t="shared" ref="I324:I387" si="11">((B324-MAX(C324,E324,G324))/B324)*100</f>
         <v>12.714776632302405</v>
       </c>
       <c r="J324" s="31"/>
@@ -17975,8 +19278,12 @@
       <c r="P324" s="26">
         <v>0.93010425567626953</v>
       </c>
-    </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q324" s="68">
+        <f t="shared" si="10"/>
+        <v>924.28097062443999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325" s="30" t="s">
         <v>326</v>
       </c>
@@ -18002,7 +19309,7 @@
         <v>1.1071596145629881</v>
       </c>
       <c r="I325" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>13.487972508591065</v>
       </c>
       <c r="J325" s="31"/>
@@ -18024,8 +19331,12 @@
       <c r="P325" s="26">
         <v>0.95352935791015625</v>
       </c>
-    </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q325" s="68">
+        <f t="shared" si="10"/>
+        <v>879.04942536321562</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" s="30" t="s">
         <v>327</v>
       </c>
@@ -18051,7 +19362,7 @@
         <v>1.1217689514160161</v>
       </c>
       <c r="I326" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>12.371134020618557</v>
       </c>
       <c r="J326" s="31"/>
@@ -18073,8 +19384,12 @@
       <c r="P326" s="26">
         <v>0.97481966018676758</v>
       </c>
-    </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q326" s="68">
+        <f t="shared" si="10"/>
+        <v>933.39671407674075</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" s="30" t="s">
         <v>328</v>
       </c>
@@ -18100,7 +19415,7 @@
         <v>1.0996577739715581</v>
       </c>
       <c r="I327" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>13.23024054982818</v>
       </c>
       <c r="J327" s="31"/>
@@ -18122,8 +19437,12 @@
       <c r="P327" s="26">
         <v>1.0057294368743901</v>
       </c>
-    </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q327" s="68">
+        <f t="shared" si="10"/>
+        <v>897.64883712866583</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328" s="30" t="s">
         <v>329</v>
       </c>
@@ -18149,7 +19468,7 @@
         <v>1.102154493331909</v>
       </c>
       <c r="I328" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>13.402061855670103</v>
       </c>
       <c r="J328" s="31"/>
@@ -18171,8 +19490,12 @@
       <c r="P328" s="26">
         <v>1.0381898880004881</v>
       </c>
-    </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q328" s="68">
+        <f t="shared" si="10"/>
+        <v>885.85556882576486</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329" s="30" t="s">
         <v>330</v>
       </c>
@@ -18198,7 +19521,7 @@
         <v>1.1953361034393311</v>
       </c>
       <c r="I329" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>11.597938144329897</v>
       </c>
       <c r="J329" s="31"/>
@@ -18220,8 +19543,12 @@
       <c r="P329" s="26">
         <v>1.1904656887054439</v>
       </c>
-    </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q329" s="68">
+        <f t="shared" si="10"/>
+        <v>889.50139797702036</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330" s="30" t="s">
         <v>331</v>
       </c>
@@ -18247,7 +19574,7 @@
         <v>1.244404554367065</v>
       </c>
       <c r="I330" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>11.597938144329897</v>
       </c>
       <c r="J330" s="31"/>
@@ -18269,8 +19596,12 @@
       <c r="P330" s="26">
         <v>1.1483762264251709</v>
       </c>
-    </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q330" s="68">
+        <f t="shared" si="10"/>
+        <v>931.69718230159936</v>
+      </c>
+    </row>
+    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331" s="30" t="s">
         <v>332</v>
       </c>
@@ -18296,7 +19627,7 @@
         <v>1.202008724212646</v>
       </c>
       <c r="I331" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>14.0893470790378</v>
       </c>
       <c r="J331" s="31"/>
@@ -18318,8 +19649,12 @@
       <c r="P331" s="26">
         <v>1.1577672958374019</v>
       </c>
-    </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q331" s="68">
+        <f t="shared" si="10"/>
+        <v>921.93024785752789</v>
+      </c>
+    </row>
+    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332" s="30" t="s">
         <v>333</v>
       </c>
@@ -18345,7 +19680,7 @@
         <v>1.2215144634246831</v>
       </c>
       <c r="I332" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10.824742268041238</v>
       </c>
       <c r="J332" s="31"/>
@@ -18367,8 +19702,12 @@
       <c r="P332" s="26">
         <v>1.1494486331939699</v>
       </c>
-    </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q332" s="68">
+        <f t="shared" si="10"/>
+        <v>838.11524983472691</v>
+      </c>
+    </row>
+    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333" s="30" t="s">
         <v>334</v>
       </c>
@@ -18394,7 +19733,7 @@
         <v>1.2278950214385991</v>
       </c>
       <c r="I333" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.4742268041237114</v>
       </c>
       <c r="J333" s="31"/>
@@ -18416,8 +19755,12 @@
       <c r="P333" s="26">
         <v>1.2770142555236821</v>
       </c>
-    </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q333" s="68">
+        <f t="shared" si="10"/>
+        <v>855.49337825077293</v>
+      </c>
+    </row>
+    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334" s="30" t="s">
         <v>335</v>
       </c>
@@ -18443,7 +19786,7 @@
         <v>1.1255495548248291</v>
       </c>
       <c r="I334" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10.32472939217319</v>
       </c>
       <c r="J334" s="31"/>
@@ -18465,8 +19808,12 @@
       <c r="P334" s="26">
         <v>1.168133497238159</v>
       </c>
-    </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q334" s="68">
+        <f t="shared" si="10"/>
+        <v>978.08652238778234</v>
+      </c>
+    </row>
+    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335" s="30" t="s">
         <v>336</v>
       </c>
@@ -18492,7 +19839,7 @@
         <v>1.1240935325622561</v>
       </c>
       <c r="I335" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10.158201498751041</v>
       </c>
       <c r="J335" s="31"/>
@@ -18514,8 +19861,12 @@
       <c r="P335" s="26">
         <v>1.1222696304321289</v>
       </c>
-    </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q335" s="68">
+        <f t="shared" si="10"/>
+        <v>946.90893889486301</v>
+      </c>
+    </row>
+    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336" s="30" t="s">
         <v>337</v>
       </c>
@@ -18541,7 +19892,7 @@
         <v>1.154451370239258</v>
       </c>
       <c r="I336" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>11.823480432972524</v>
       </c>
       <c r="J336" s="31"/>
@@ -18563,8 +19914,12 @@
       <c r="P336" s="26">
         <v>1.085346460342407</v>
       </c>
-    </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q336" s="68">
+        <f t="shared" si="10"/>
+        <v>933.80342526571599</v>
+      </c>
+    </row>
+    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" s="30" t="s">
         <v>338</v>
       </c>
@@ -18590,7 +19945,7 @@
         <v>1.1553802490234379</v>
       </c>
       <c r="I337" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9.9084096586178187</v>
       </c>
       <c r="J337" s="31"/>
@@ -18612,8 +19967,12 @@
       <c r="P337" s="26">
         <v>1.0789656639099121</v>
       </c>
-    </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q337" s="68">
+        <f t="shared" si="10"/>
+        <v>960.52477388984448</v>
+      </c>
+    </row>
+    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" s="30" t="s">
         <v>339</v>
       </c>
@@ -18639,7 +19998,7 @@
         <v>1.1663999557495119</v>
       </c>
       <c r="I338" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>11.407160699417153</v>
       </c>
       <c r="J338" s="31"/>
@@ -18661,8 +20020,12 @@
       <c r="P338" s="26">
         <v>0.99590444564819336</v>
       </c>
-    </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q338" s="68">
+        <f t="shared" si="10"/>
+        <v>931.49358536124851</v>
+      </c>
+    </row>
+    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" s="30" t="s">
         <v>340</v>
       </c>
@@ -18688,7 +20051,7 @@
         <v>1.16569447517395</v>
       </c>
       <c r="I339" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10.574521232306411</v>
       </c>
       <c r="J339" s="31"/>
@@ -18710,8 +20073,12 @@
       <c r="P339" s="26">
         <v>1.086417436599731</v>
       </c>
-    </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q339" s="68">
+        <f t="shared" si="10"/>
+        <v>975.14170730087346</v>
+      </c>
+    </row>
+    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" s="30" t="s">
         <v>341</v>
       </c>
@@ -18737,7 +20104,7 @@
         <v>1.2556347846984861</v>
       </c>
       <c r="I340" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10.657785179017486</v>
       </c>
       <c r="J340" s="31"/>
@@ -18759,8 +20126,12 @@
       <c r="P340" s="26">
         <v>1.093866348266602</v>
       </c>
-    </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q340" s="68">
+        <f t="shared" si="10"/>
+        <v>949.53437405635304</v>
+      </c>
+    </row>
+    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" s="30" t="s">
         <v>342</v>
       </c>
@@ -18786,7 +20157,7 @@
         <v>1.3078575134277339</v>
       </c>
       <c r="I341" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>11.5736885928393</v>
       </c>
       <c r="J341" s="31"/>
@@ -18808,8 +20179,12 @@
       <c r="P341" s="26">
         <v>1.140123605728149</v>
       </c>
-    </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q341" s="68">
+        <f t="shared" si="10"/>
+        <v>942.36841151492911</v>
+      </c>
+    </row>
+    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" s="30" t="s">
         <v>343</v>
       </c>
@@ -18835,7 +20210,7 @@
         <v>1.23044753074646</v>
       </c>
       <c r="I342" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>11.074104912572857</v>
       </c>
       <c r="J342" s="31"/>
@@ -18857,8 +20232,12 @@
       <c r="P342" s="26">
         <v>1.2610137462615969</v>
       </c>
-    </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q342" s="68">
+        <f t="shared" si="10"/>
+        <v>917.03168813776097</v>
+      </c>
+    </row>
+    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" s="30" t="s">
         <v>344</v>
       </c>
@@ -18884,7 +20263,7 @@
         <v>1.288424491882324</v>
       </c>
       <c r="I343" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9.8251457119067442</v>
       </c>
       <c r="J343" s="31"/>
@@ -18906,8 +20285,12 @@
       <c r="P343" s="26">
         <v>1.26247239112854</v>
       </c>
-    </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q343" s="68">
+        <f t="shared" si="10"/>
+        <v>920.20895238876426</v>
+      </c>
+    </row>
+    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" s="30" t="s">
         <v>345</v>
       </c>
@@ -18933,7 +20316,7 @@
         <v>1.307597875595093</v>
       </c>
       <c r="I344" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>12.073272273105745</v>
       </c>
       <c r="J344" s="31"/>
@@ -18955,8 +20338,12 @@
       <c r="P344" s="26">
         <v>1.2004740238189699</v>
       </c>
-    </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q344" s="68">
+        <f t="shared" si="10"/>
+        <v>879.13042222036847</v>
+      </c>
+    </row>
+    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" s="30" t="s">
         <v>346</v>
       </c>
@@ -18982,7 +20369,7 @@
         <v>1.145213842391968</v>
       </c>
       <c r="I345" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9.8865478119935162</v>
       </c>
       <c r="J345" s="31"/>
@@ -19004,8 +20391,12 @@
       <c r="P345" s="26">
         <v>1.067028284072876</v>
       </c>
-    </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q345" s="68">
+        <f t="shared" si="10"/>
+        <v>1005.223559343155</v>
+      </c>
+    </row>
+    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" s="30" t="s">
         <v>347</v>
       </c>
@@ -19031,7 +20422,7 @@
         <v>1.182239770889282</v>
       </c>
       <c r="I346" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10.048622366288493</v>
       </c>
       <c r="J346" s="31"/>
@@ -19053,8 +20444,12 @@
       <c r="P346" s="26">
         <v>1.0245311260223391</v>
       </c>
-    </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q346" s="68">
+        <f t="shared" si="10"/>
+        <v>981.92231934020469</v>
+      </c>
+    </row>
+    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" s="30" t="s">
         <v>348</v>
       </c>
@@ -19080,7 +20475,7 @@
         <v>1.1777141094207759</v>
       </c>
       <c r="I347" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10.372771474878444</v>
       </c>
       <c r="J347" s="31"/>
@@ -19102,8 +20497,12 @@
       <c r="P347" s="26">
         <v>1.0374162197113039</v>
       </c>
-    </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q347" s="68">
+        <f t="shared" si="10"/>
+        <v>968.0376043875583</v>
+      </c>
+    </row>
+    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" s="30" t="s">
         <v>349</v>
       </c>
@@ -19129,7 +20528,7 @@
         <v>1.203444719314575</v>
       </c>
       <c r="I348" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8.6709886547811994</v>
       </c>
       <c r="J348" s="31"/>
@@ -19151,8 +20550,12 @@
       <c r="P348" s="26">
         <v>1.032197952270508</v>
       </c>
-    </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q348" s="68">
+        <f t="shared" si="10"/>
+        <v>988.31911882652128</v>
+      </c>
+    </row>
+    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" s="30" t="s">
         <v>350</v>
       </c>
@@ -19178,7 +20581,7 @@
         <v>1.2192273139953611</v>
       </c>
       <c r="I349" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10.12965964343598</v>
       </c>
       <c r="J349" s="31"/>
@@ -19200,8 +20603,12 @@
       <c r="P349" s="26">
         <v>1.052611351013184</v>
       </c>
-    </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q349" s="68">
+        <f t="shared" si="10"/>
+        <v>969.32835506514914</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" s="30" t="s">
         <v>351</v>
       </c>
@@ -19227,7 +20634,7 @@
         <v>1.27336049079895</v>
       </c>
       <c r="I350" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10.12965964343598</v>
       </c>
       <c r="J350" s="31"/>
@@ -19249,8 +20656,12 @@
       <c r="P350" s="26">
         <v>1.055541038513184</v>
       </c>
-    </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q350" s="68">
+        <f t="shared" si="10"/>
+        <v>964.58988045420256</v>
+      </c>
+    </row>
+    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" s="30" t="s">
         <v>352</v>
       </c>
@@ -19276,7 +20687,7 @@
         <v>1.2941398620605471</v>
       </c>
       <c r="I351" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8.833063209076176</v>
       </c>
       <c r="J351" s="31"/>
@@ -19298,8 +20709,12 @@
       <c r="P351" s="26">
         <v>1.1177961826324461</v>
       </c>
-    </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q351" s="68">
+        <f t="shared" si="10"/>
+        <v>960.95276526902035</v>
+      </c>
+    </row>
+    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" s="30" t="s">
         <v>353</v>
       </c>
@@ -19325,7 +20740,7 @@
         <v>1.4975841045379641</v>
       </c>
       <c r="I352" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9.481361426256079</v>
       </c>
       <c r="J352" s="31"/>
@@ -19347,8 +20762,12 @@
       <c r="P352" s="26">
         <v>1.1557562351226811</v>
       </c>
-    </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q352" s="68">
+        <f t="shared" ref="Q352:Q398" si="12">MAX(K352,M352,O352)</f>
+        <v>966.87717861233716</v>
+      </c>
+    </row>
+    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" s="30" t="s">
         <v>354</v>
       </c>
@@ -19374,7 +20793,7 @@
         <v>1.4204726219177251</v>
       </c>
       <c r="I353" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8.5089141004862245</v>
       </c>
       <c r="J353" s="31"/>
@@ -19396,8 +20815,12 @@
       <c r="P353" s="26">
         <v>1.1128416061401369</v>
       </c>
-    </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q353" s="68">
+        <f t="shared" si="12"/>
+        <v>988.74067576318237</v>
+      </c>
+    </row>
+    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" s="30" t="s">
         <v>355</v>
       </c>
@@ -19423,7 +20846,7 @@
         <v>1.572744607925415</v>
       </c>
       <c r="I354" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>11.426256077795786</v>
       </c>
       <c r="J354" s="31"/>
@@ -19445,8 +20868,12 @@
       <c r="P354" s="26">
         <v>1.179502487182617</v>
       </c>
-    </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q354" s="68">
+        <f t="shared" si="12"/>
+        <v>975.91308050094767</v>
+      </c>
+    </row>
+    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" s="30" t="s">
         <v>356</v>
       </c>
@@ -19472,7 +20899,7 @@
         <v>1.564639091491699</v>
       </c>
       <c r="I355" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9.3192868719611024</v>
       </c>
       <c r="J355" s="31"/>
@@ -19494,8 +20921,12 @@
       <c r="P355" s="26">
         <v>1.2151997089385991</v>
       </c>
-    </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q355" s="68">
+        <f t="shared" si="12"/>
+        <v>967.69620381887944</v>
+      </c>
+    </row>
+    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" s="30" t="s">
         <v>357</v>
       </c>
@@ -19521,7 +20952,7 @@
         <v>1.4359035491943359</v>
       </c>
       <c r="I356" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.5337034099920697</v>
       </c>
       <c r="J356" s="31"/>
@@ -19543,8 +20974,12 @@
       <c r="P356" s="26">
         <v>1.0466570854187009</v>
       </c>
-    </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q356" s="68">
+        <f t="shared" si="12"/>
+        <v>1014.318632006897</v>
+      </c>
+    </row>
+    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" s="30" t="s">
         <v>358</v>
       </c>
@@ -19570,7 +21005,7 @@
         <v>1.331185102462769</v>
       </c>
       <c r="I357" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.5337034099920697</v>
       </c>
       <c r="J357" s="31"/>
@@ -19592,8 +21027,12 @@
       <c r="P357" s="26">
         <v>1.063517808914185</v>
       </c>
-    </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q357" s="68">
+        <f t="shared" si="12"/>
+        <v>992.80495111946493</v>
+      </c>
+    </row>
+    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" s="30" t="s">
         <v>359</v>
       </c>
@@ -19619,7 +21058,7 @@
         <v>1.2927906513214109</v>
       </c>
       <c r="I358" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10.150674068199841</v>
       </c>
       <c r="J358" s="31"/>
@@ -19641,8 +21080,12 @@
       <c r="P358" s="26">
         <v>1.078994989395142</v>
       </c>
-    </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q358" s="68">
+        <f t="shared" si="12"/>
+        <v>1017.260856391884</v>
+      </c>
+    </row>
+    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" s="30" t="s">
         <v>360</v>
       </c>
@@ -19668,7 +21111,7 @@
         <v>1.253484725952148</v>
       </c>
       <c r="I359" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.7716098334655035</v>
       </c>
       <c r="J359" s="31"/>
@@ -19690,8 +21133,12 @@
       <c r="P359" s="26">
         <v>1.051312923431396</v>
       </c>
-    </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q359" s="68">
+        <f t="shared" si="12"/>
+        <v>1006.0033062006891</v>
+      </c>
+    </row>
+    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360" s="30" t="s">
         <v>361</v>
       </c>
@@ -19717,7 +21164,7 @@
         <v>1.4145123958587651</v>
       </c>
       <c r="I360" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.6130055511498806</v>
       </c>
       <c r="J360" s="31"/>
@@ -19739,8 +21186,12 @@
       <c r="P360" s="26">
         <v>1.1316695213317871</v>
       </c>
-    </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q360" s="68">
+        <f t="shared" si="12"/>
+        <v>990.42545590991733</v>
+      </c>
+    </row>
+    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361" s="30" t="s">
         <v>362</v>
       </c>
@@ -19766,7 +21217,7 @@
         <v>1.4718348979949949</v>
       </c>
       <c r="I361" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9.595559080095164</v>
       </c>
       <c r="J361" s="31"/>
@@ -19788,8 +21239,12 @@
       <c r="P361" s="26">
         <v>1.1051445007324221</v>
       </c>
-    </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q361" s="68">
+        <f t="shared" si="12"/>
+        <v>1003.706535205413</v>
+      </c>
+    </row>
+    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362" s="30" t="s">
         <v>363</v>
       </c>
@@ -19815,7 +21270,7 @@
         <v>1.4442930221557619</v>
       </c>
       <c r="I362" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8.6439333862014269</v>
       </c>
       <c r="J362" s="31"/>
@@ -19837,8 +21292,12 @@
       <c r="P362" s="26">
         <v>1.129808902740479</v>
       </c>
-    </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q362" s="68">
+        <f t="shared" si="12"/>
+        <v>1012.788118512454</v>
+      </c>
+    </row>
+    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363" s="30" t="s">
         <v>364</v>
       </c>
@@ -19864,7 +21323,7 @@
         <v>1.492218017578125</v>
       </c>
       <c r="I363" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8.5646312450436159</v>
       </c>
       <c r="J363" s="31"/>
@@ -19886,8 +21345,12 @@
       <c r="P363" s="26">
         <v>1.172455310821533</v>
       </c>
-    </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q363" s="68">
+        <f t="shared" si="12"/>
+        <v>998.75202654828956</v>
+      </c>
+    </row>
+    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364" s="30" t="s">
         <v>365</v>
       </c>
@@ -19913,7 +21376,7 @@
         <v>1.353229761123657</v>
       </c>
       <c r="I364" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8.2474226804123703</v>
       </c>
       <c r="J364" s="31"/>
@@ -19935,8 +21398,12 @@
       <c r="P364" s="26">
         <v>1.1783556938171389</v>
       </c>
-    </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q364" s="68">
+        <f t="shared" si="12"/>
+        <v>993.96244700557122</v>
+      </c>
+    </row>
+    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365" s="30" t="s">
         <v>366</v>
       </c>
@@ -19962,7 +21429,7 @@
         <v>1.4046921730041499</v>
       </c>
       <c r="I365" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8.6439333862014269</v>
       </c>
       <c r="J365" s="31"/>
@@ -19984,8 +21451,12 @@
       <c r="P365" s="26">
         <v>1.232618093490601</v>
       </c>
-    </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q365" s="68">
+        <f t="shared" si="12"/>
+        <v>979.05846157768156</v>
+      </c>
+    </row>
+    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366" s="30" t="s">
         <v>367</v>
       </c>
@@ -20011,7 +21482,7 @@
         <v>1.3363099098205571</v>
       </c>
       <c r="I366" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10.785091197462332</v>
       </c>
       <c r="J366" s="31"/>
@@ -20033,8 +21504,12 @@
       <c r="P366" s="26">
         <v>1.1990270614624019</v>
       </c>
-    </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q366" s="68">
+        <f t="shared" si="12"/>
+        <v>960.82220632070585</v>
+      </c>
+    </row>
+    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" s="30" t="s">
         <v>368</v>
       </c>
@@ -20060,7 +21535,7 @@
         <v>1.247613668441772</v>
       </c>
       <c r="I367" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.7881619937694699</v>
       </c>
       <c r="J367" s="31"/>
@@ -20082,8 +21557,12 @@
       <c r="P367" s="26">
         <v>1.126634359359741</v>
       </c>
-    </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q367" s="68">
+        <f t="shared" si="12"/>
+        <v>1030.9643138835081</v>
+      </c>
+    </row>
+    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368" s="30" t="s">
         <v>369</v>
       </c>
@@ -20109,7 +21588,7 @@
         <v>1.270350456237793</v>
       </c>
       <c r="I368" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.7881619937694699</v>
       </c>
       <c r="J368" s="31"/>
@@ -20131,8 +21610,12 @@
       <c r="P368" s="26">
         <v>1.1087663173675539</v>
       </c>
-    </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q368" s="68">
+        <f t="shared" si="12"/>
+        <v>1035.6997316818199</v>
+      </c>
+    </row>
+    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369" s="30" t="s">
         <v>370</v>
       </c>
@@ -20158,7 +21641,7 @@
         <v>1.2723548412323</v>
       </c>
       <c r="I369" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10.747663551401869</v>
       </c>
       <c r="J369" s="31"/>
@@ -20180,8 +21663,12 @@
       <c r="P369" s="26">
         <v>1.1028957366943359</v>
       </c>
-    </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q369" s="68">
+        <f t="shared" si="12"/>
+        <v>1027.490167531088</v>
+      </c>
+    </row>
+    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370" s="30" t="s">
         <v>371</v>
       </c>
@@ -20207,7 +21694,7 @@
         <v>1.2641341686248779</v>
       </c>
       <c r="I370" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.8660436137071645</v>
       </c>
       <c r="J370" s="31"/>
@@ -20229,8 +21716,12 @@
       <c r="P370" s="26">
         <v>1.105823755264282</v>
       </c>
-    </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q370" s="68">
+        <f t="shared" si="12"/>
+        <v>1018.357856484967</v>
+      </c>
+    </row>
+    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371" s="30" t="s">
         <v>372</v>
       </c>
@@ -20256,7 +21747,7 @@
         <v>1.2882621288299561</v>
       </c>
       <c r="I371" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.7881619937694699</v>
       </c>
       <c r="J371" s="31"/>
@@ -20278,8 +21769,12 @@
       <c r="P371" s="26">
         <v>1.100092887878418</v>
       </c>
-    </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q371" s="68">
+        <f t="shared" si="12"/>
+        <v>1015.778860897402</v>
+      </c>
+    </row>
+    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372" s="30" t="s">
         <v>373</v>
       </c>
@@ -20305,7 +21800,7 @@
         <v>1.339825391769409</v>
       </c>
       <c r="I372" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.2429906542056068</v>
       </c>
       <c r="J372" s="31"/>
@@ -20327,8 +21822,12 @@
       <c r="P372" s="26">
         <v>1.114997386932373</v>
       </c>
-    </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q372" s="68">
+        <f t="shared" si="12"/>
+        <v>1050.1829835792371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373" s="30" t="s">
         <v>374</v>
       </c>
@@ -20354,7 +21853,7 @@
         <v>1.389970541000366</v>
       </c>
       <c r="I373" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6.5420560747663545</v>
       </c>
       <c r="J373" s="31"/>
@@ -20376,8 +21875,12 @@
       <c r="P373" s="26">
         <v>1.1777083873748779</v>
       </c>
-    </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q373" s="68">
+        <f t="shared" si="12"/>
+        <v>1026.8734371026369</v>
+      </c>
+    </row>
+    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374" s="30" t="s">
         <v>375</v>
       </c>
@@ -20403,7 +21906,7 @@
         <v>1.413469552993774</v>
       </c>
       <c r="I374" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.1651090342679122</v>
       </c>
       <c r="J374" s="31"/>
@@ -20425,8 +21928,12 @@
       <c r="P374" s="26">
         <v>1.1965422630310061</v>
       </c>
-    </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q374" s="68">
+        <f t="shared" si="12"/>
+        <v>1029.418993052725</v>
+      </c>
+    </row>
+    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375" s="30" t="s">
         <v>376</v>
       </c>
@@ -20452,7 +21959,7 @@
         <v>1.445731401443481</v>
       </c>
       <c r="I375" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.6323987538940807</v>
       </c>
       <c r="J375" s="31"/>
@@ -20474,8 +21981,12 @@
       <c r="P375" s="26">
         <v>1.218366861343384</v>
       </c>
-    </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q375" s="68">
+        <f t="shared" si="12"/>
+        <v>1021.580610957426</v>
+      </c>
+    </row>
+    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376" s="30" t="s">
         <v>377</v>
       </c>
@@ -20501,7 +22012,7 @@
         <v>1.5197427272796631</v>
       </c>
       <c r="I376" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8.0996884735202492</v>
       </c>
       <c r="J376" s="31"/>
@@ -20523,8 +22034,12 @@
       <c r="P376" s="26">
         <v>1.2728457450866699</v>
       </c>
-    </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q376" s="68">
+        <f t="shared" si="12"/>
+        <v>1044.3045598742981</v>
+      </c>
+    </row>
+    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377" s="30" t="s">
         <v>378</v>
       </c>
@@ -20550,7 +22065,7 @@
         <v>1.4635496139526369</v>
       </c>
       <c r="I377" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.3738317757009346</v>
       </c>
       <c r="J377" s="31"/>
@@ -20572,8 +22087,12 @@
       <c r="P377" s="26">
         <v>1.2435638904571531</v>
       </c>
-    </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q377" s="68">
+        <f t="shared" si="12"/>
+        <v>941.67412124112798</v>
+      </c>
+    </row>
+    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378" s="30" t="s">
         <v>379</v>
       </c>
@@ -20599,7 +22118,7 @@
         <v>1.319089889526367</v>
       </c>
       <c r="I378" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.2879019908116387</v>
       </c>
       <c r="J378" s="31"/>
@@ -20621,8 +22140,12 @@
       <c r="P378" s="26">
         <v>1.1354246139526369</v>
       </c>
-    </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q378" s="68">
+        <f t="shared" si="12"/>
+        <v>1073.96165676141</v>
+      </c>
+    </row>
+    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379" s="30" t="s">
         <v>380</v>
       </c>
@@ -20648,7 +22171,7 @@
         <v>1.33656907081604</v>
       </c>
       <c r="I379" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.4410413476263404</v>
       </c>
       <c r="J379" s="31"/>
@@ -20670,8 +22193,12 @@
       <c r="P379" s="26">
         <v>1.1446347236633301</v>
       </c>
-    </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q379" s="68">
+        <f t="shared" si="12"/>
+        <v>1057.385087972048</v>
+      </c>
+    </row>
+    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" s="30" t="s">
         <v>381</v>
       </c>
@@ -20697,7 +22224,7 @@
         <v>1.3309671878814699</v>
       </c>
       <c r="I380" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.9004594180704446</v>
       </c>
       <c r="J380" s="31"/>
@@ -20719,8 +22246,12 @@
       <c r="P380" s="26">
         <v>1.1639642715454099</v>
       </c>
-    </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q380" s="68">
+        <f t="shared" si="12"/>
+        <v>1065.362245401808</v>
+      </c>
+    </row>
+    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" s="30" t="s">
         <v>382</v>
       </c>
@@ -20746,7 +22277,7 @@
         <v>1.350553512573242</v>
       </c>
       <c r="I381" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3.9050535987748853</v>
       </c>
       <c r="J381" s="31"/>
@@ -20768,8 +22299,12 @@
       <c r="P381" s="26">
         <v>1.1469733715057371</v>
       </c>
-    </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q381" s="68">
+        <f t="shared" si="12"/>
+        <v>1058.682353540775</v>
+      </c>
+    </row>
+    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" s="30" t="s">
         <v>383</v>
       </c>
@@ -20795,7 +22330,7 @@
         <v>1.3783140182495119</v>
       </c>
       <c r="I382" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.5895865237366005</v>
       </c>
       <c r="J382" s="31"/>
@@ -20817,8 +22352,12 @@
       <c r="P382" s="26">
         <v>1.17198634147644</v>
       </c>
-    </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q382" s="68">
+        <f t="shared" si="12"/>
+        <v>1070.2737787900651</v>
+      </c>
+    </row>
+    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" s="30" t="s">
         <v>384</v>
       </c>
@@ -20844,7 +22383,7 @@
         <v>1.39311146736145</v>
       </c>
       <c r="I383" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.2067381316998471</v>
       </c>
       <c r="J383" s="31"/>
@@ -20866,8 +22405,12 @@
       <c r="P383" s="26">
         <v>1.2000560760498049</v>
       </c>
-    </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q383" s="68">
+        <f t="shared" si="12"/>
+        <v>1056.0749058739109</v>
+      </c>
+    </row>
+    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" s="30" t="s">
         <v>385</v>
       </c>
@@ -20893,7 +22436,7 @@
         <v>1.4653060436248779</v>
       </c>
       <c r="I384" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.5176110260336904</v>
       </c>
       <c r="J384" s="31"/>
@@ -20915,8 +22458,12 @@
       <c r="P384" s="26">
         <v>1.236087322235107</v>
       </c>
-    </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q384" s="68">
+        <f t="shared" si="12"/>
+        <v>1061.6053230062321</v>
+      </c>
+    </row>
+    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" s="30" t="s">
         <v>386</v>
       </c>
@@ -20942,7 +22489,7 @@
         <v>1.4858484268188481</v>
       </c>
       <c r="I385" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.1301684532924963</v>
       </c>
       <c r="J385" s="31"/>
@@ -20964,8 +22511,12 @@
       <c r="P385" s="26">
         <v>1.3874168395996089</v>
       </c>
-    </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q385" s="68">
+        <f t="shared" si="12"/>
+        <v>1051.082571263099</v>
+      </c>
+    </row>
+    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" s="30" t="s">
         <v>387</v>
       </c>
@@ -20991,7 +22542,7 @@
         <v>1.54778528213501</v>
       </c>
       <c r="I386" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.5130168453292496</v>
       </c>
       <c r="J386" s="31"/>
@@ -21013,8 +22564,12 @@
       <c r="P386" s="26">
         <v>1.3881673812866211</v>
       </c>
-    </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q386" s="68">
+        <f t="shared" si="12"/>
+        <v>1060.5302483157079</v>
+      </c>
+    </row>
+    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" s="30" t="s">
         <v>388</v>
       </c>
@@ -21040,7 +22595,7 @@
         <v>1.5219089984893801</v>
       </c>
       <c r="I387" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6.5084226646248089</v>
       </c>
       <c r="J387" s="31"/>
@@ -21062,8 +22617,12 @@
       <c r="P387" s="26">
         <v>1.4754858016967769</v>
       </c>
-    </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q387" s="68">
+        <f t="shared" si="12"/>
+        <v>1053.987768407959</v>
+      </c>
+    </row>
+    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" s="30" t="s">
         <v>389</v>
       </c>
@@ -21089,7 +22648,7 @@
         <v>1.5555076599121089</v>
       </c>
       <c r="I388" s="14">
-        <f t="shared" ref="I388:I398" si="6">((B388-MAX(C388,E388,G388))/B388)*100</f>
+        <f t="shared" ref="I388:I398" si="13">((B388-MAX(C388,E388,G388))/B388)*100</f>
         <v>6.8912710566615614</v>
       </c>
       <c r="J388" s="31"/>
@@ -21111,8 +22670,12 @@
       <c r="P388" s="26">
         <v>1.448816061019897</v>
       </c>
-    </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q388" s="68">
+        <f t="shared" si="12"/>
+        <v>1046.7330783214391</v>
+      </c>
+    </row>
+    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="30" t="s">
         <v>390</v>
       </c>
@@ -21138,7 +22701,7 @@
         <v>0.2219851016998291</v>
       </c>
       <c r="I389" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J389" s="31"/>
@@ -21160,8 +22723,12 @@
       <c r="P389" s="26">
         <v>0.25205278396606451</v>
       </c>
-    </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q389" s="68">
+        <f t="shared" si="12"/>
+        <v>131.13457918992421</v>
+      </c>
+    </row>
+    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" s="30" t="s">
         <v>391</v>
       </c>
@@ -21187,7 +22754,7 @@
         <v>0.21941256523132319</v>
       </c>
       <c r="I390" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>16.022099447513813</v>
       </c>
       <c r="J390" s="31"/>
@@ -21209,8 +22776,12 @@
       <c r="P390" s="26">
         <v>0.31715130805969238</v>
       </c>
-    </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q390" s="68">
+        <f t="shared" si="12"/>
+        <v>104.8134369016899</v>
+      </c>
+    </row>
+    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" s="30" t="s">
         <v>392</v>
       </c>
@@ -21236,7 +22807,7 @@
         <v>0.26429224014282232</v>
       </c>
       <c r="I391" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J391" s="31"/>
@@ -21258,8 +22829,12 @@
       <c r="P391" s="26">
         <v>0.27127385139465332</v>
       </c>
-    </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q391" s="68">
+        <f t="shared" si="12"/>
+        <v>80.413123002811886</v>
+      </c>
+    </row>
+    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" s="30" t="s">
         <v>393</v>
       </c>
@@ -21285,7 +22860,7 @@
         <v>0.25033044815063482</v>
       </c>
       <c r="I392" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>16.022099447513813</v>
       </c>
       <c r="J392" s="31"/>
@@ -21307,8 +22882,12 @@
       <c r="P392" s="26">
         <v>0.30525636672973627</v>
       </c>
-    </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q392" s="68">
+        <f t="shared" si="12"/>
+        <v>106.5573532237068</v>
+      </c>
+    </row>
+    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" s="30" t="s">
         <v>394</v>
       </c>
@@ -21334,7 +22913,7 @@
         <v>0.28241467475891108</v>
       </c>
       <c r="I393" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>12.154696132596685</v>
       </c>
       <c r="J393" s="31"/>
@@ -21356,8 +22935,12 @@
       <c r="P393" s="26">
         <v>0.26628804206848139</v>
       </c>
-    </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q393" s="68">
+        <f t="shared" si="12"/>
+        <v>58.079782181767193</v>
+      </c>
+    </row>
+    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" s="30" t="s">
         <v>395</v>
       </c>
@@ -21383,7 +22966,7 @@
         <v>0.25930619239807129</v>
       </c>
       <c r="I394" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J394" s="31"/>
@@ -21405,8 +22988,12 @@
       <c r="P394" s="26">
         <v>0.32113504409790039</v>
       </c>
-    </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q394" s="68">
+        <f t="shared" si="12"/>
+        <v>171.90300336730161</v>
+      </c>
+    </row>
+    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="30" t="s">
         <v>396</v>
       </c>
@@ -21432,7 +23019,7 @@
         <v>0.24135351181030271</v>
       </c>
       <c r="I395" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>15.637860082304528</v>
       </c>
       <c r="J395" s="31"/>
@@ -21454,8 +23041,12 @@
       <c r="P395" s="26">
         <v>0.22654485702514651</v>
       </c>
-    </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q395" s="68">
+        <f t="shared" si="12"/>
+        <v>103.94361193546059</v>
+      </c>
+    </row>
+    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" s="30" t="s">
         <v>397</v>
       </c>
@@ -21481,7 +23072,7 @@
         <v>0.2732691764831543</v>
       </c>
       <c r="I396" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>11.111111111111111</v>
       </c>
       <c r="J396" s="31"/>
@@ -21503,8 +23094,12 @@
       <c r="P396" s="26">
         <v>0.34328651428222662</v>
       </c>
-    </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q396" s="68">
+        <f t="shared" si="12"/>
+        <v>63.337152472970892</v>
+      </c>
+    </row>
+    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" s="30" t="s">
         <v>398</v>
       </c>
@@ -21530,7 +23125,7 @@
         <v>0.26784777641296392</v>
       </c>
       <c r="I397" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>12.345679012345679</v>
       </c>
       <c r="J397" s="31"/>
@@ -21552,8 +23147,12 @@
       <c r="P397" s="26">
         <v>0.25232458114624018</v>
       </c>
-    </row>
-    <row r="398" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q397" s="68">
+        <f t="shared" si="12"/>
+        <v>144.4041801920518</v>
+      </c>
+    </row>
+    <row r="398" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A398" s="30" t="s">
         <v>399</v>
       </c>
@@ -21579,7 +23178,7 @@
         <v>0.2982022762298584</v>
       </c>
       <c r="I398" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>9.0534979423868318</v>
       </c>
       <c r="J398" s="31"/>
@@ -21601,8 +23200,12 @@
       <c r="P398" s="29">
         <v>0.29421257972717291</v>
       </c>
-    </row>
-    <row r="399" spans="1:16" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q398" s="68">
+        <f t="shared" si="12"/>
+        <v>156.54507473756951</v>
+      </c>
+    </row>
+    <row r="399" spans="1:17" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A399" s="35" t="s">
         <v>400</v>
       </c>
@@ -21622,7 +23225,7 @@
         <f>AVERAGE(H4:H398)</f>
         <v>0.70853597604775731</v>
       </c>
-      <c r="I399" s="22">
+      <c r="I399" s="62">
         <f>AVERAGE(I4:I398)</f>
         <v>9.7474036558188821</v>
       </c>
@@ -21641,27 +23244,31 @@
         <f>AVERAGE(P4:P398)</f>
         <v>0.58507909955857673</v>
       </c>
+      <c r="Q399" s="63">
+        <f t="array" ref="Q399">AVERAGE((((Summary!B$4:B$398)-(Summary!$Q$4:$Q$398))/(Summary!B$4:B$398))*100)</f>
+        <v>26.715766384901212</v>
+      </c>
     </row>
     <row r="402" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="403" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B403" s="58" t="s">
+      <c r="B403" s="44" t="s">
         <v>400</v>
       </c>
-      <c r="C403" s="61" t="s">
+      <c r="C403" s="41" t="s">
         <v>412</v>
       </c>
-      <c r="D403" s="62"/>
-      <c r="E403" s="61" t="s">
+      <c r="D403" s="43"/>
+      <c r="E403" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="F403" s="63"/>
-      <c r="G403" s="61" t="s">
+      <c r="F403" s="42"/>
+      <c r="G403" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="H403" s="62"/>
+      <c r="H403" s="43"/>
     </row>
     <row r="404" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B404" s="59"/>
+      <c r="B404" s="45"/>
       <c r="C404" s="32" t="s">
         <v>407</v>
       </c>
@@ -21857,83 +23464,83 @@
     </row>
     <row r="411" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C411" s="36">
-        <f t="shared" ref="C411" si="7">AVERAGE(C405:C410)</f>
+        <f t="shared" ref="C411" si="14">AVERAGE(C405:C410)</f>
         <v>11.255613650250901</v>
       </c>
       <c r="D411" s="21">
-        <f t="shared" ref="D411" si="8">AVERAGE(D405:D410)</f>
+        <f t="shared" ref="D411" si="15">AVERAGE(D405:D410)</f>
         <v>0.62243940447586288</v>
       </c>
       <c r="E411" s="36">
-        <f t="shared" ref="E411:H411" si="9">AVERAGE(E405:E410)</f>
+        <f t="shared" ref="E411:H411" si="16">AVERAGE(E405:E410)</f>
         <v>9.3425873118863159</v>
       </c>
       <c r="F411" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.56017595204037374</v>
       </c>
       <c r="G411" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>8.5556892758013863</v>
       </c>
       <c r="H411" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.4771336611147925</v>
       </c>
     </row>
     <row r="413" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="414" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B414" s="58" t="s">
+      <c r="B414" s="44" t="s">
         <v>415</v>
       </c>
-      <c r="C414" s="61" t="s">
+      <c r="C414" s="41" t="s">
         <v>412</v>
       </c>
-      <c r="D414" s="63"/>
-      <c r="E414" s="63"/>
-      <c r="F414" s="62"/>
-      <c r="G414" s="61" t="s">
+      <c r="D414" s="42"/>
+      <c r="E414" s="42"/>
+      <c r="F414" s="43"/>
+      <c r="G414" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="H414" s="63"/>
-      <c r="I414" s="63"/>
-      <c r="J414" s="62"/>
-      <c r="K414" s="61" t="s">
+      <c r="H414" s="42"/>
+      <c r="I414" s="42"/>
+      <c r="J414" s="43"/>
+      <c r="K414" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="L414" s="63"/>
-      <c r="M414" s="63"/>
-      <c r="N414" s="62"/>
+      <c r="L414" s="42"/>
+      <c r="M414" s="42"/>
+      <c r="N414" s="43"/>
     </row>
     <row r="415" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B415" s="60"/>
-      <c r="C415" s="61" t="s">
+      <c r="B415" s="46"/>
+      <c r="C415" s="41" t="s">
         <v>407</v>
       </c>
-      <c r="D415" s="62"/>
-      <c r="E415" s="61" t="s">
+      <c r="D415" s="43"/>
+      <c r="E415" s="41" t="s">
         <v>408</v>
       </c>
-      <c r="F415" s="62"/>
-      <c r="G415" s="61" t="s">
+      <c r="F415" s="43"/>
+      <c r="G415" s="41" t="s">
         <v>407</v>
       </c>
-      <c r="H415" s="62"/>
-      <c r="I415" s="61" t="s">
+      <c r="H415" s="43"/>
+      <c r="I415" s="41" t="s">
         <v>408</v>
       </c>
-      <c r="J415" s="62"/>
-      <c r="K415" s="61" t="s">
+      <c r="J415" s="43"/>
+      <c r="K415" s="41" t="s">
         <v>407</v>
       </c>
-      <c r="L415" s="62"/>
-      <c r="M415" s="61" t="s">
+      <c r="L415" s="43"/>
+      <c r="M415" s="41" t="s">
         <v>408</v>
       </c>
-      <c r="N415" s="62"/>
+      <c r="N415" s="43"/>
     </row>
     <row r="416" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B416" s="59"/>
+      <c r="B416" s="45"/>
       <c r="C416" s="7" t="s">
         <v>416</v>
       </c>
@@ -22290,7 +23897,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="B414:B416"/>
+    <mergeCell ref="C403:D403"/>
+    <mergeCell ref="E403:F403"/>
+    <mergeCell ref="G403:H403"/>
     <mergeCell ref="K414:N414"/>
     <mergeCell ref="G414:J414"/>
     <mergeCell ref="C414:F414"/>
@@ -22300,23 +23925,6 @@
     <mergeCell ref="I415:J415"/>
     <mergeCell ref="K415:L415"/>
     <mergeCell ref="M415:N415"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="B414:B416"/>
-    <mergeCell ref="C403:D403"/>
-    <mergeCell ref="E403:F403"/>
-    <mergeCell ref="G403:H403"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C398 K4:K398">
     <cfRule type="expression" dxfId="2" priority="15">
